--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>№</t>
   </si>
@@ -25,18 +25,18 @@
     <t xml:space="preserve">Архипов Илья Алексеевич</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Билык Юрий Алексеевич</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
-    <t xml:space="preserve">Билык Юрий Алексеевич</t>
-  </si>
-  <si>
     <t xml:space="preserve">Бодрова Алина Денисовна</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Брылева Екатерина Андреевна</t>
   </si>
   <si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">Слинкина Юлия Витальевна</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
   <si>
     <t xml:space="preserve">Смаль Анастасия Владиславовна</t>
@@ -169,13 +172,16 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -715,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3">
-        <v>44938</v>
+        <v>44944</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -734,7 +740,7 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="4"/>
@@ -754,8 +760,8 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -772,10 +778,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -791,11 +797,11 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>3</v>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -814,8 +820,8 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -834,8 +840,8 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>3</v>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -851,11 +857,11 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -874,8 +880,8 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
+      <c r="C9" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -894,8 +900,8 @@
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>3</v>
+      <c r="C10" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -914,8 +920,8 @@
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>6</v>
+      <c r="C11" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -934,8 +940,8 @@
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>3</v>
+      <c r="C12" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -954,8 +960,8 @@
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>3</v>
+      <c r="C13" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -972,9 +978,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="4"/>
@@ -991,11 +997,11 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>3</v>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1012,10 +1018,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1032,9 +1038,9 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="4"/>
@@ -1052,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1076,7 +1082,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00FD0064-0097-4396-85E1-00EA00C8000A}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00B50032-00BA-43B6-A74F-0041005F005C}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1093,7 +1099,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{007E006D-0091-41E0-84F8-008C00F600E8}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00EC0078-0076-4DEA-83B4-00220004001C}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1110,7 +1116,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0099004F-0094-4AD4-9747-00110015000C}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{004900A9-00CB-42D6-B1E3-00A2004600D4}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -1139,7 +1145,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" min="1" max="1" width="2.8515625"/>
     <col bestFit="1" min="2" max="2" width="38.28125"/>
@@ -1149,11 +1155,11 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>21</v>
+      <c r="C1" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1169,7 +1175,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4"/>
@@ -1187,7 +1193,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4"/>
@@ -1205,8 +1211,8 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1223,7 +1229,7 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="4">
@@ -1243,7 +1249,7 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4"/>
@@ -1261,7 +1267,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="4"/>
@@ -1279,7 +1285,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="4"/>
@@ -1297,7 +1303,7 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="4"/>
@@ -1315,7 +1321,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="4">
@@ -1335,7 +1341,7 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="4"/>
@@ -1353,7 +1359,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="4">
@@ -1373,7 +1379,7 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="4">
@@ -1393,8 +1399,8 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>16</v>
+      <c r="B14" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="4">
         <v>5</v>
@@ -1413,8 +1419,8 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>17</v>
+      <c r="B15" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="4">
         <v>5</v>
@@ -1433,8 +1439,8 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>18</v>
+      <c r="B16" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1451,8 +1457,8 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>19</v>
+      <c r="B17" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1469,8 +1475,8 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>20</v>
+      <c r="B18" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1486,13 +1492,13 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{009A00C7-00E1-4E30-8510-00E5002A00F4}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{005B00BF-0090-4F0A-9880-000900E2006E}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1509,7 +1515,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{003D0013-008D-4E18-95C5-00B600D20042}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00E700F8-0030-4035-9327-00A300E900BC}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1526,7 +1532,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0035007B-0002-4194-A490-00F600BB003C}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00650057-0029-4FAF-9EE4-0042003F00F1}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26129"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_E285236680F5C37C461527805727893526E4A86A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB1E228B-B5FC-408A-90ED-E5189C0ABE1E}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_E285236680F5C37C461527805727893526E4A86A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{908DA90E-410E-4AC5-86B0-C57855DA87B5}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="24">
   <si>
     <t>№</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Доп</t>
+  </si>
+  <si>
+    <t>Doc</t>
   </si>
 </sst>
 </file>
@@ -497,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -521,7 +524,9 @@
       <c r="D1" s="3">
         <v>44951</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="3">
+        <v>44956</v>
+      </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -543,7 +548,9 @@
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -565,7 +572,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -587,7 +596,9 @@
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -609,7 +620,9 @@
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -631,7 +644,9 @@
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -653,7 +668,9 @@
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -675,7 +692,9 @@
       <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -697,7 +716,9 @@
       <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -719,7 +740,9 @@
       <c r="D10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -741,7 +764,9 @@
       <c r="D11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -763,7 +788,9 @@
       <c r="D12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -785,7 +812,9 @@
       <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -807,7 +836,9 @@
       <c r="D14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -829,7 +860,9 @@
       <c r="D15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -851,7 +884,9 @@
       <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -873,7 +908,9 @@
       <c r="D17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -895,7 +932,9 @@
       <c r="D18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -929,12 +968,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1"/>
-    <col min="2" max="2" width="38.28515625" bestFit="1"/>
+    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -947,7 +988,9 @@
       <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -983,7 +1026,9 @@
         <v>4</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4">
+        <v>3</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1001,7 +1046,9 @@
         <v>6</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1021,7 +1068,9 @@
       <c r="C5" s="4">
         <v>5</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1057,7 +1106,9 @@
         <v>9</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4">
+        <v>6</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1075,7 +1126,9 @@
         <v>10</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1093,7 +1146,9 @@
         <v>11</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1113,7 +1168,9 @@
       <c r="C10" s="4">
         <v>5</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1151,7 +1208,9 @@
       <c r="C12" s="4">
         <v>5</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4">
+        <v>3</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1171,7 +1230,9 @@
       <c r="C13" s="4">
         <v>5</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1191,7 +1252,9 @@
       <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4">
+        <v>3</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1211,7 +1274,9 @@
       <c r="C15" s="4">
         <v>5</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1229,7 +1294,9 @@
         <v>19</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4">
+        <v>3</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1247,7 +1314,9 @@
         <v>20</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4">
+        <v>3</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1265,7 +1334,9 @@
         <v>21</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4">
+        <v>3</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_E285236680F5C37C461527805727893526E4A86A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{908DA90E-410E-4AC5-86B0-C57855DA87B5}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="11_E285236680F5C37C461527805727893526E4A86A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D287F82F-38CA-47E5-9FC7-FDE432CD9DDF}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="24">
   <si>
     <t>№</t>
   </si>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -527,8 +527,12 @@
       <c r="E1" s="3">
         <v>44956</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="F1" s="3">
+        <v>44958</v>
+      </c>
+      <c r="G1" s="3">
+        <v>44963</v>
+      </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -551,8 +555,12 @@
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -575,8 +583,12 @@
       <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -599,8 +611,12 @@
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -623,8 +639,12 @@
       <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -647,8 +667,12 @@
       <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -671,8 +695,12 @@
       <c r="E7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -695,8 +723,12 @@
       <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -719,8 +751,12 @@
       <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -743,8 +779,12 @@
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -767,8 +807,12 @@
       <c r="E11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -791,8 +835,12 @@
       <c r="E12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -815,8 +863,12 @@
       <c r="E13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -839,8 +891,12 @@
       <c r="E14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -863,8 +919,12 @@
       <c r="E15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -887,8 +947,12 @@
       <c r="E16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -911,8 +975,12 @@
       <c r="E17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -935,8 +1003,12 @@
       <c r="E18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -968,7 +1040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26202"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="75" documentId="11_E285236680F5C37C461527805727893526E4A86A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D287F82F-38CA-47E5-9FC7-FDE432CD9DDF}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="11_E285236680F5C37C461527805727893526E4A86A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A23C3719-D5FB-4713-B3EA-F0A1FEB773B6}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="24">
   <si>
     <t>№</t>
   </si>
@@ -43,10 +43,10 @@
     <t>-</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
     <t>Билык Юрий Алексеевич</t>
-  </si>
-  <si>
-    <t>+</t>
   </si>
   <si>
     <t>Бодрова Алина Денисовна</t>
@@ -501,7 +501,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -533,8 +533,12 @@
       <c r="G1" s="3">
         <v>44963</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="H1" s="3">
+        <v>44965</v>
+      </c>
+      <c r="I1" s="3">
+        <v>44965</v>
+      </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -561,8 +565,12 @@
       <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -572,16 +580,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>3</v>
@@ -589,8 +597,12 @@
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -603,22 +615,26 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -631,22 +647,26 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -659,7 +679,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>3</v>
@@ -671,10 +691,14 @@
         <v>3</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -687,22 +711,26 @@
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -715,13 +743,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>3</v>
@@ -729,8 +757,12 @@
       <c r="G8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -746,10 +778,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>3</v>
@@ -757,8 +789,12 @@
       <c r="G9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -771,13 +807,13 @@
         <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>3</v>
@@ -785,8 +821,12 @@
       <c r="G10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -813,8 +853,12 @@
       <c r="G11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -827,22 +871,26 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -858,19 +906,23 @@
         <v>15</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -889,16 +941,20 @@
         <v>3</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -911,22 +967,26 @@
         <v>18</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -945,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>3</v>
@@ -953,8 +1013,12 @@
       <c r="G16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -973,7 +1037,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>3</v>
@@ -981,8 +1045,12 @@
       <c r="G17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -995,22 +1063,26 @@
         <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -1038,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1050,7 +1122,7 @@
     <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1144,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1080,7 +1152,9 @@
         <v>2</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4">
+        <v>3</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1090,12 +1164,12 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4">
@@ -1110,7 +1184,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1119,7 +1193,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1130,7 +1204,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1141,7 +1215,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1151,8 +1225,11 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1170,7 +1247,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1190,7 +1267,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1210,7 +1287,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1219,7 +1296,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1230,7 +1307,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1241,7 +1318,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1252,7 +1329,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1270,7 +1347,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1281,7 +1358,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1292,7 +1369,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1303,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1314,7 +1391,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1336,7 +1413,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1358,7 +1435,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="2">
         <v>15</v>
       </c>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26202"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="120" documentId="11_E285236680F5C37C461527805727893526E4A86A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A23C3719-D5FB-4713-B3EA-F0A1FEB773B6}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="11_E285236680F5C37C461527805727893526E4A86A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7B3F493-127B-4C79-8745-007D9471383E}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="25">
   <si>
     <t>№</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Doc</t>
+  </si>
+  <si>
+    <t>Virtual</t>
   </si>
 </sst>
 </file>
@@ -500,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -539,7 +542,9 @@
       <c r="I1" s="3">
         <v>44965</v>
       </c>
-      <c r="J1" s="4"/>
+      <c r="J1" s="3">
+        <v>44970</v>
+      </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
@@ -571,7 +576,9 @@
       <c r="I2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
@@ -603,7 +610,9 @@
       <c r="I3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
@@ -635,7 +644,9 @@
       <c r="I4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
@@ -667,7 +678,9 @@
       <c r="I5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
@@ -699,7 +712,9 @@
       <c r="I6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
@@ -731,7 +746,9 @@
       <c r="I7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
@@ -763,7 +780,9 @@
       <c r="I8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
@@ -795,7 +814,9 @@
       <c r="I9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
@@ -827,7 +848,9 @@
       <c r="I10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
@@ -859,7 +882,9 @@
       <c r="I11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
@@ -891,7 +916,9 @@
       <c r="I12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
@@ -923,7 +950,9 @@
       <c r="I13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
@@ -955,7 +984,9 @@
       <c r="I14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
@@ -987,7 +1018,9 @@
       <c r="I15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="J15" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
@@ -1019,7 +1052,9 @@
       <c r="I16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
@@ -1051,7 +1086,9 @@
       <c r="I17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
@@ -1083,7 +1120,9 @@
       <c r="I18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
@@ -1112,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1135,7 +1174,9 @@
       <c r="D1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -1175,7 +1216,9 @@
       <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4">
+        <v>6</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1195,7 +1238,9 @@
       <c r="D4" s="4">
         <v>10</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4">
+        <v>6</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1217,7 +1262,9 @@
       <c r="D5" s="4">
         <v>10</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4">
+        <v>6</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1238,7 +1285,9 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4">
+        <v>6</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1298,7 +1347,9 @@
       <c r="D9" s="4">
         <v>10</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4">
+        <v>6</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1360,7 +1411,9 @@
       <c r="D12" s="4">
         <v>10</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4">
+        <v>6</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1382,7 +1435,9 @@
       <c r="D13" s="4">
         <v>10</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4">
+        <v>6</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1426,7 +1481,9 @@
       <c r="D15" s="4">
         <v>3</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4">
+        <v>3</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1486,7 +1543,9 @@
       <c r="D18" s="4">
         <v>3</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4">
+        <v>6</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="158" documentId="11_E285236680F5C37C461527805727893526E4A86A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7B3F493-127B-4C79-8745-007D9471383E}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="11_E285236680F5C37C461527805727893526E4A86A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC7581E2-78E6-4FDE-BC3F-78F639F2C6C1}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="25">
   <si>
     <t>№</t>
   </si>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -545,7 +545,9 @@
       <c r="J1" s="3">
         <v>44970</v>
       </c>
-      <c r="K1" s="4"/>
+      <c r="K1" s="3">
+        <v>44972</v>
+      </c>
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12">
@@ -579,7 +581,9 @@
       <c r="J2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12">
@@ -613,7 +617,9 @@
       <c r="J3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="K3" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12">
@@ -647,7 +653,9 @@
       <c r="J4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12">
@@ -681,7 +689,9 @@
       <c r="J5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12">
@@ -715,7 +725,9 @@
       <c r="J6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12">
@@ -749,7 +761,9 @@
       <c r="J7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12">
@@ -783,7 +797,9 @@
       <c r="J8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12">
@@ -817,7 +833,9 @@
       <c r="J9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12">
@@ -851,7 +869,9 @@
       <c r="J10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12">
@@ -885,7 +905,9 @@
       <c r="J11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="4"/>
+      <c r="K11" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12">
@@ -919,7 +941,9 @@
       <c r="J12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
@@ -953,7 +977,9 @@
       <c r="J13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
@@ -987,7 +1013,9 @@
       <c r="J14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
@@ -1021,7 +1049,9 @@
       <c r="J15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
@@ -1055,7 +1085,9 @@
       <c r="J16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="4"/>
+      <c r="K16" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
@@ -1089,7 +1121,9 @@
       <c r="J17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="4"/>
+      <c r="K17" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
@@ -1123,7 +1157,9 @@
       <c r="J18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="4"/>
+      <c r="K18" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L18" s="4"/>
     </row>
   </sheetData>
@@ -1151,7 +1187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26212"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="176" documentId="11_E285236680F5C37C461527805727893526E4A86A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC7581E2-78E6-4FDE-BC3F-78F639F2C6C1}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="11_E285236680F5C37C461527805727893526E4A86A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D1C8A65-0FDA-47FC-8657-3D2E98BF5C85}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="25">
   <si>
     <t>№</t>
   </si>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -548,7 +548,9 @@
       <c r="K1" s="3">
         <v>44972</v>
       </c>
-      <c r="L1" s="4"/>
+      <c r="L1" s="3">
+        <v>44977</v>
+      </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2">
@@ -584,7 +586,9 @@
       <c r="K2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2">
@@ -620,7 +624,9 @@
       <c r="K3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2">
@@ -656,7 +662,9 @@
       <c r="K4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2">
@@ -692,7 +700,9 @@
       <c r="K5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2">
@@ -728,7 +738,9 @@
       <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2">
@@ -764,7 +776,9 @@
       <c r="K7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2">
@@ -800,7 +814,9 @@
       <c r="K8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2">
@@ -836,7 +852,9 @@
       <c r="K9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2">
@@ -872,7 +890,9 @@
       <c r="K10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2">
@@ -908,7 +928,9 @@
       <c r="K11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2">
@@ -944,7 +966,9 @@
       <c r="K12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2">
@@ -980,7 +1004,9 @@
       <c r="K13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2">
@@ -1016,7 +1042,9 @@
       <c r="K14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2">
@@ -1052,7 +1080,9 @@
       <c r="K15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2">
@@ -1088,7 +1118,9 @@
       <c r="K16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="4"/>
+      <c r="L16" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2">
@@ -1124,7 +1156,9 @@
       <c r="K17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="4"/>
+      <c r="L17" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2">
@@ -1160,7 +1194,9 @@
       <c r="K18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="4"/>
+      <c r="L18" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:L18">
@@ -1187,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1320,7 +1356,9 @@
         <v>8</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
       <c r="E6" s="4">
         <v>6</v>
       </c>
@@ -1341,9 +1379,11 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1361,7 +1401,7 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26219"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="198" documentId="11_E285236680F5C37C461527805727893526E4A86A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D1C8A65-0FDA-47FC-8657-3D2E98BF5C85}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="11_E285236680F5C37C461527805727893526E4A86A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8096606C-DD1A-48DC-8765-4D97D5A6D486}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +123,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -190,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,6 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -501,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -514,7 +521,7 @@
     <col min="3" max="12" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -551,8 +558,11 @@
       <c r="L1" s="3">
         <v>44977</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="10">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -589,8 +599,11 @@
       <c r="L2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -627,8 +640,11 @@
       <c r="L3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -665,8 +681,11 @@
       <c r="L4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -703,8 +722,11 @@
       <c r="L5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -741,8 +763,11 @@
       <c r="L6" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -779,8 +804,11 @@
       <c r="L7" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -817,8 +845,11 @@
       <c r="L8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -855,8 +886,11 @@
       <c r="L9" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -893,8 +927,11 @@
       <c r="L10" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -931,8 +968,11 @@
       <c r="L11" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -969,8 +1009,11 @@
       <c r="L12" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1007,8 +1050,11 @@
       <c r="L13" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1045,8 +1091,11 @@
       <c r="L14" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1083,8 +1132,11 @@
       <c r="L15" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1121,8 +1173,11 @@
       <c r="L16" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1159,8 +1214,11 @@
       <c r="L17" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1196,6 +1254,9 @@
       </c>
       <c r="L18" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="M18">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26219"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26220"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="217" documentId="11_E285236680F5C37C461527805727893526E4A86A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8096606C-DD1A-48DC-8765-4D97D5A6D486}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="11_E285236680F5C37C461527805727893526E4A86A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D076FFCA-3DE1-4454-A1A3-165B30A6FEFD}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="27">
   <si>
     <t>№</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>Virtual</t>
+  </si>
+  <si>
+    <t>Postman</t>
+  </si>
+  <si>
+    <t>Итог</t>
   </si>
 </sst>
 </file>
@@ -196,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,6 +220,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -508,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -521,7 +528,7 @@
     <col min="3" max="12" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15">
+    <row r="1" spans="1:14" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -561,8 +568,11 @@
       <c r="M1" s="10">
         <v>44979</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="11">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -602,8 +612,11 @@
       <c r="M2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -643,8 +656,11 @@
       <c r="M3">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -684,8 +700,11 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -725,8 +744,11 @@
       <c r="M5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -766,8 +788,11 @@
       <c r="M6">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -807,8 +832,11 @@
       <c r="M7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -848,8 +876,11 @@
       <c r="M8">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -889,8 +920,11 @@
       <c r="M9">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -930,8 +964,11 @@
       <c r="M10">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -969,10 +1006,13 @@
         <v>3</v>
       </c>
       <c r="M11">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1012,8 +1052,11 @@
       <c r="M12">
         <v>-10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1053,8 +1096,11 @@
       <c r="M13">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1094,8 +1140,11 @@
       <c r="M14">
         <v>-10</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1135,8 +1184,11 @@
       <c r="M15">
         <v>-10</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1176,8 +1228,11 @@
       <c r="M16">
         <v>-10</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1217,8 +1272,11 @@
       <c r="M17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1257,6 +1315,9 @@
       </c>
       <c r="M18">
         <v>15</v>
+      </c>
+      <c r="N18">
+        <v>-15</v>
       </c>
     </row>
   </sheetData>
@@ -1282,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1294,7 +1355,7 @@
     <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1310,15 +1371,19 @@
       <c r="E1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="L1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1336,31 +1401,41 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="L2" s="4">
+        <f>SUM(C2:K2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4">
+        <v>15</v>
+      </c>
       <c r="D3" s="4">
         <v>3</v>
       </c>
       <c r="E3" s="4">
-        <v>6</v>
-      </c>
-      <c r="F3" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="L3" s="4">
+        <f t="shared" ref="L3:L18" si="0">SUM(C3:K3)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1372,7 +1447,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1380,9 +1455,12 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="L4" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1390,26 +1468,28 @@
         <v>7</v>
       </c>
       <c r="C5" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4">
         <v>10</v>
       </c>
       <c r="E5" s="4">
-        <v>6</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="L5" s="4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1418,10 +1498,10 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1429,9 +1509,12 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="L6" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1443,7 +1526,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1451,9 +1534,12 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="L7" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1471,9 +1557,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="L8" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1485,17 +1574,22 @@
         <v>10</v>
       </c>
       <c r="E9" s="4">
-        <v>6</v>
-      </c>
-      <c r="F9" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="L9" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1515,9 +1609,12 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="L10" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1533,9 +1630,12 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="L11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1549,7 +1649,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1557,9 +1657,12 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="L12" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1573,7 +1676,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1581,9 +1684,12 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="L13" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1594,18 +1700,23 @@
         <v>5</v>
       </c>
       <c r="D14" s="4">
-        <v>3</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="E14" s="4">
+        <v>10</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="L14" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1619,17 +1730,22 @@
         <v>3</v>
       </c>
       <c r="E15" s="4">
-        <v>3</v>
-      </c>
-      <c r="F15" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="L15" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1647,7 +1763,10 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="L16" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2">
@@ -1667,7 +1786,10 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="L17" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2">
@@ -1681,7 +1803,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1689,7 +1811,10 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="L18" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:L18">

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26220"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26228"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="262" documentId="11_E285236680F5C37C461527805727893526E4A86A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D076FFCA-3DE1-4454-A1A3-165B30A6FEFD}"/>
+  <xr:revisionPtr revIDLastSave="298" documentId="11_E285236680F5C37C461527805727893526E4A86A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B57CCF4-FCF4-42C8-80F1-354D709D802C}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -528,7 +528,7 @@
     <col min="3" max="12" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15">
+    <row r="1" spans="1:16" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -571,8 +571,14 @@
       <c r="N1" s="11">
         <v>44984</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="11">
+        <v>44986</v>
+      </c>
+      <c r="P1" s="11">
+        <v>44988</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -615,8 +621,14 @@
       <c r="N2">
         <v>-15</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>15</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -659,8 +671,14 @@
       <c r="N3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>-10</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -703,8 +721,14 @@
       <c r="N4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>15</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -747,8 +771,14 @@
       <c r="N5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>15</v>
+      </c>
+      <c r="P5">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -791,8 +821,14 @@
       <c r="N6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>15</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -835,8 +871,14 @@
       <c r="N7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>15</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -879,8 +921,14 @@
       <c r="N8">
         <v>-15</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>15</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -923,8 +971,14 @@
       <c r="N9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>15</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -967,8 +1021,14 @@
       <c r="N10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>-10</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1011,8 +1071,14 @@
       <c r="N11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>-10</v>
+      </c>
+      <c r="P11">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1055,8 +1121,14 @@
       <c r="N12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>15</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1099,8 +1171,14 @@
       <c r="N13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>15</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1143,8 +1221,14 @@
       <c r="N14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>15</v>
+      </c>
+      <c r="P14">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1187,8 +1271,14 @@
       <c r="N15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>-10</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1231,8 +1321,14 @@
       <c r="N16">
         <v>-15</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>-10</v>
+      </c>
+      <c r="P16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1275,8 +1371,14 @@
       <c r="N17">
         <v>-15</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1318,6 +1420,12 @@
       </c>
       <c r="N18">
         <v>-15</v>
+      </c>
+      <c r="O18">
+        <v>15</v>
+      </c>
+      <c r="P18">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1346,7 +1454,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26301"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="298" documentId="11_E285236680F5C37C461527805727893526E4A86A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B57CCF4-FCF4-42C8-80F1-354D709D802C}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="11_E285236680F5C37C461527805727893526E4A86A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EA81831-1786-492D-B906-948FC4126682}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -67,6 +67,9 @@
     <t>Ивашков Дмитрий Александрович</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>Коваль Леонид Андреевич</t>
   </si>
   <si>
@@ -74,9 +77,6 @@
   </si>
   <si>
     <t>Самохин Артемий Николаевич</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
   <si>
     <t>Слинкина Юлия Витальевна</t>
@@ -515,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -528,7 +528,7 @@
     <col min="3" max="12" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15">
+    <row r="1" spans="1:17" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -577,8 +577,11 @@
       <c r="P1" s="11">
         <v>44988</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="11">
+        <v>44991</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -627,8 +630,11 @@
       <c r="P2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -675,10 +681,13 @@
         <v>-10</v>
       </c>
       <c r="P3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -727,8 +736,11 @@
       <c r="P4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -777,8 +789,11 @@
       <c r="P5">
         <v>-15</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -827,8 +842,11 @@
       <c r="P6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -877,8 +895,11 @@
       <c r="P7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -927,8 +948,11 @@
       <c r="P8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -948,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>4</v>
@@ -977,13 +1001,16 @@
       <c r="P9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -1027,13 +1054,16 @@
       <c r="P10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>3</v>
@@ -1077,19 +1107,22 @@
       <c r="P11">
         <v>-15</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>4</v>
@@ -1127,8 +1160,11 @@
       <c r="P12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1136,7 +1172,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>4</v>
@@ -1177,8 +1213,11 @@
       <c r="P13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1227,8 +1266,11 @@
       <c r="P14">
         <v>-15</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1277,8 +1319,11 @@
       <c r="P15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1327,8 +1372,11 @@
       <c r="P16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1377,8 +1425,11 @@
       <c r="P17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1425,6 +1476,9 @@
         <v>15</v>
       </c>
       <c r="P18">
+        <v>10</v>
+      </c>
+      <c r="Q18">
         <v>10</v>
       </c>
     </row>
@@ -1453,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1557,7 +1611,9 @@
       <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1565,7 +1621,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1585,7 +1641,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1594,7 +1650,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1611,7 +1667,9 @@
       <c r="E6" s="4">
         <v>10</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -1619,7 +1677,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1658,7 +1716,9 @@
       <c r="D8" s="4">
         <v>6</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4">
+        <v>10</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1667,7 +1727,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1685,7 +1745,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1694,7 +1754,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1702,7 +1762,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4">
         <v>5</v>
@@ -1727,11 +1787,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4">
+        <v>10</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1740,7 +1802,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1748,7 +1810,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4">
         <v>5</v>
@@ -1786,7 +1848,9 @@
       <c r="E13" s="4">
         <v>10</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4">
+        <v>5</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1794,7 +1858,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:12">

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26306"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="329" documentId="11_E285236680F5C37C461527805727893526E4A86A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EA81831-1786-492D-B906-948FC4126682}"/>
+  <xr:revisionPtr revIDLastSave="358" documentId="11_E285236680F5C37C461527805727893526E4A86A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21E585B3-D3DD-4D07-974B-443A488D985A}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="31">
   <si>
     <t>№</t>
   </si>
@@ -109,7 +109,19 @@
     <t>Postman</t>
   </si>
   <si>
+    <t>Selenium</t>
+  </si>
+  <si>
     <t>Итог</t>
+  </si>
+  <si>
+    <t>10-20</t>
+  </si>
+  <si>
+    <t>20-25</t>
+  </si>
+  <si>
+    <t>25-30</t>
   </si>
 </sst>
 </file>
@@ -202,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,6 +233,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -515,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -528,7 +543,7 @@
     <col min="3" max="12" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15">
+    <row r="1" spans="1:18" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -580,8 +595,11 @@
       <c r="Q1" s="11">
         <v>44991</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="11">
+        <v>44998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -633,8 +651,11 @@
       <c r="Q2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -686,8 +707,11 @@
       <c r="Q3">
         <v>-15</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -739,8 +763,11 @@
       <c r="Q4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -792,8 +819,11 @@
       <c r="Q5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -845,8 +875,11 @@
       <c r="Q6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -898,8 +931,11 @@
       <c r="Q7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -951,8 +987,11 @@
       <c r="Q8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1004,8 +1043,11 @@
       <c r="Q9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1057,8 +1099,11 @@
       <c r="Q10">
         <v>-15</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1110,8 +1155,11 @@
       <c r="Q11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1163,8 +1211,11 @@
       <c r="Q12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1216,8 +1267,11 @@
       <c r="Q13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1269,8 +1323,11 @@
       <c r="Q14">
         <v>-15</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1322,8 +1379,11 @@
       <c r="Q15">
         <v>-15</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1375,8 +1435,11 @@
       <c r="Q16">
         <v>-15</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1428,8 +1491,11 @@
       <c r="Q17">
         <v>-15</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1479,6 +1545,9 @@
         <v>10</v>
       </c>
       <c r="Q18">
+        <v>10</v>
+      </c>
+      <c r="R18">
         <v>10</v>
       </c>
     </row>
@@ -1505,10 +1574,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1536,13 +1605,15 @@
       <c r="F1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1587,14 +1658,16 @@
       <c r="F3" s="4">
         <v>3</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4">
+        <v>10</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4">
         <f t="shared" ref="L3:L18" si="0">SUM(C3:K3)</f>
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1822,14 +1895,16 @@
         <v>10</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1986,6 +2061,21 @@
       <c r="L18" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15">
+      <c r="G21" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15">
+      <c r="G22" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15">
+      <c r="G23" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26306"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26307"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="358" documentId="11_E285236680F5C37C461527805727893526E4A86A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21E585B3-D3DD-4D07-974B-443A488D985A}"/>
+  <xr:revisionPtr revIDLastSave="378" documentId="11_E285236680F5C37C461527805727893526E4A86A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAF3107B-F4B4-42F0-A3B5-BAC57DCA27D2}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -530,10 +530,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="18" topLeftCell="J19" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -543,7 +546,7 @@
     <col min="3" max="12" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15">
+    <row r="1" spans="1:19" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -598,8 +601,11 @@
       <c r="R1" s="11">
         <v>44998</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="11">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -654,8 +660,11 @@
       <c r="R2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -710,8 +719,11 @@
       <c r="R3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -766,8 +778,11 @@
       <c r="R4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -820,10 +835,13 @@
         <v>10</v>
       </c>
       <c r="R5">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -878,8 +896,11 @@
       <c r="R6">
         <v>-15</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -934,8 +955,11 @@
       <c r="R7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -990,8 +1014,11 @@
       <c r="R8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1046,8 +1073,11 @@
       <c r="R9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1102,8 +1132,11 @@
       <c r="R10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1158,8 +1191,11 @@
       <c r="R11">
         <v>-15</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1214,8 +1250,11 @@
       <c r="R12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1270,8 +1309,11 @@
       <c r="R13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1326,8 +1368,11 @@
       <c r="R14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1382,8 +1427,11 @@
       <c r="R15">
         <v>-15</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1438,8 +1486,11 @@
       <c r="R16">
         <v>-15</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1494,8 +1545,11 @@
       <c r="R17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1549,6 +1603,9 @@
       </c>
       <c r="R18">
         <v>10</v>
+      </c>
+      <c r="S18">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1576,7 +1633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26312"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="378" documentId="11_E285236680F5C37C461527805727893526E4A86A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAF3107B-F4B4-42F0-A3B5-BAC57DCA27D2}"/>
+  <xr:revisionPtr revIDLastSave="380" documentId="11_E285236680F5C37C461527805727893526E4A86A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{588362CF-87C3-401F-B675-CD0A182D4173}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -530,11 +530,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="18" topLeftCell="J19" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomRight" activeCell="Q24" sqref="Q24"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -546,7 +546,7 @@
     <col min="3" max="12" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15">
+    <row r="1" spans="1:18" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -593,19 +593,16 @@
         <v>44986</v>
       </c>
       <c r="P1" s="11">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="Q1" s="11">
-        <v>44991</v>
+        <v>44998</v>
       </c>
       <c r="R1" s="11">
-        <v>44998</v>
-      </c>
-      <c r="S1" s="11">
         <v>45000</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:18">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -658,13 +655,10 @@
         <v>10</v>
       </c>
       <c r="R2">
-        <v>10</v>
-      </c>
-      <c r="S2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -711,19 +705,16 @@
         <v>-10</v>
       </c>
       <c r="P3">
-        <v>10</v>
+        <v>-15</v>
       </c>
       <c r="Q3">
-        <v>-15</v>
+        <v>10</v>
       </c>
       <c r="R3">
-        <v>10</v>
-      </c>
-      <c r="S3">
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:18">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -776,13 +767,10 @@
         <v>10</v>
       </c>
       <c r="R4">
-        <v>10</v>
-      </c>
-      <c r="S4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -829,19 +817,16 @@
         <v>15</v>
       </c>
       <c r="P5">
-        <v>-15</v>
+        <v>10</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -891,16 +876,13 @@
         <v>10</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>-15</v>
       </c>
       <c r="R6">
-        <v>-15</v>
-      </c>
-      <c r="S6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -953,13 +935,10 @@
         <v>10</v>
       </c>
       <c r="R7">
-        <v>10</v>
-      </c>
-      <c r="S7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1012,13 +991,10 @@
         <v>10</v>
       </c>
       <c r="R8">
-        <v>10</v>
-      </c>
-      <c r="S8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1071,13 +1047,10 @@
         <v>10</v>
       </c>
       <c r="R9">
-        <v>10</v>
-      </c>
-      <c r="S9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:18">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1124,19 +1097,16 @@
         <v>-10</v>
       </c>
       <c r="P10">
-        <v>10</v>
+        <v>-15</v>
       </c>
       <c r="Q10">
-        <v>-15</v>
+        <v>10</v>
       </c>
       <c r="R10">
-        <v>10</v>
-      </c>
-      <c r="S10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1183,19 +1153,16 @@
         <v>-10</v>
       </c>
       <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
         <v>-15</v>
       </c>
-      <c r="Q11">
-        <v>10</v>
-      </c>
       <c r="R11">
-        <v>-15</v>
-      </c>
-      <c r="S11">
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:18">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1248,13 +1215,10 @@
         <v>10</v>
       </c>
       <c r="R12">
-        <v>10</v>
-      </c>
-      <c r="S12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1307,13 +1271,10 @@
         <v>10</v>
       </c>
       <c r="R13">
-        <v>10</v>
-      </c>
-      <c r="S13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1363,16 +1324,13 @@
         <v>-15</v>
       </c>
       <c r="Q14">
-        <v>-15</v>
+        <v>10</v>
       </c>
       <c r="R14">
-        <v>10</v>
-      </c>
-      <c r="S14">
         <v>-10</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:18">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1419,19 +1377,16 @@
         <v>-10</v>
       </c>
       <c r="P15">
-        <v>10</v>
+        <v>-15</v>
       </c>
       <c r="Q15">
         <v>-15</v>
       </c>
       <c r="R15">
-        <v>-15</v>
-      </c>
-      <c r="S15">
         <v>-10</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:18">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1478,19 +1433,16 @@
         <v>-10</v>
       </c>
       <c r="P16">
-        <v>10</v>
+        <v>-15</v>
       </c>
       <c r="Q16">
         <v>-15</v>
       </c>
       <c r="R16">
-        <v>-15</v>
-      </c>
-      <c r="S16">
         <v>-10</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:18">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1537,19 +1489,16 @@
         <v>15</v>
       </c>
       <c r="P17">
-        <v>10</v>
+        <v>-15</v>
       </c>
       <c r="Q17">
-        <v>-15</v>
+        <v>15</v>
       </c>
       <c r="R17">
         <v>15</v>
       </c>
-      <c r="S17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1602,9 +1551,6 @@
         <v>10</v>
       </c>
       <c r="R18">
-        <v>10</v>
-      </c>
-      <c r="S18">
         <v>15</v>
       </c>
     </row>
@@ -1634,7 +1580,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
@@ -787,8 +787,11 @@
       <c r="R1" s="5">
         <v>45000</v>
       </c>
-      <c r="S1" s="6">
+      <c r="S1" s="5">
         <v>45005</v>
+      </c>
+      <c r="T1" s="6">
+        <v>45007</v>
       </c>
     </row>
     <row r="2">
@@ -849,6 +852,9 @@
       <c r="S2">
         <v>-15</v>
       </c>
+      <c r="T2">
+        <v>-10</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -908,6 +914,9 @@
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>-10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -967,6 +976,9 @@
       <c r="S4">
         <v>10</v>
       </c>
+      <c r="T4">
+        <v>15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -1025,6 +1037,9 @@
       </c>
       <c r="S5">
         <v>10</v>
+      </c>
+      <c r="T5">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -1085,6 +1100,9 @@
       <c r="S6">
         <v>10</v>
       </c>
+      <c r="T6">
+        <v>15</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -1144,6 +1162,9 @@
       <c r="S7">
         <v>10</v>
       </c>
+      <c r="T7">
+        <v>15</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -1203,6 +1224,9 @@
       <c r="S8">
         <v>-15</v>
       </c>
+      <c r="T8">
+        <v>15</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -1262,6 +1286,9 @@
       <c r="S9">
         <v>10</v>
       </c>
+      <c r="T9">
+        <v>15</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -1321,6 +1348,9 @@
       <c r="S10">
         <v>10</v>
       </c>
+      <c r="T10">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -1379,6 +1409,9 @@
       </c>
       <c r="S11">
         <v>-15</v>
+      </c>
+      <c r="T11">
+        <v>-10</v>
       </c>
     </row>
     <row r="12">
@@ -1439,6 +1472,9 @@
       <c r="S12">
         <v>10</v>
       </c>
+      <c r="T12">
+        <v>15</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
@@ -1498,6 +1534,9 @@
       <c r="S13">
         <v>10</v>
       </c>
+      <c r="T13">
+        <v>15</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
@@ -1557,6 +1596,9 @@
       <c r="S14">
         <v>10</v>
       </c>
+      <c r="T14">
+        <v>15</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
@@ -1616,6 +1658,9 @@
       <c r="S15">
         <v>10</v>
       </c>
+      <c r="T15">
+        <v>-10</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
@@ -1674,6 +1719,9 @@
       </c>
       <c r="S16">
         <v>-15</v>
+      </c>
+      <c r="T16">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1734,6 +1782,9 @@
       <c r="S17">
         <v>-25</v>
       </c>
+      <c r="T17">
+        <v>-10</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
@@ -1792,6 +1843,9 @@
       </c>
       <c r="S18">
         <v>10</v>
+      </c>
+      <c r="T18">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1803,7 +1857,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{009A007B-004C-457F-8C07-005300530005}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{000A0042-00CD-434F-BB64-003B00F900D6}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1820,7 +1874,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00F50033-009D-4698-B5E0-00EB000100E4}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00D40050-00F4-4F7B-B051-006E0076006F}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1837,7 +1891,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{003300D5-00C6-4440-B7CF-004700D300CE}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{005C0061-0020-4E86-A470-0011006900AC}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -2379,7 +2433,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00D20064-009C-4E5A-AA09-00D600260023}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{009800A2-0019-4359-B59C-00B100CF0065}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -2396,7 +2450,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{004400E2-004A-41AE-B078-00CB006900EA}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00150064-0098-4DE0-B80A-00BD00570033}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -2413,7 +2467,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{006F00DA-00CA-4A67-9F35-009C009E004C}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0070009D-00CC-418D-9EBB-000800E600F6}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -790,8 +790,11 @@
       <c r="S1" s="5">
         <v>45005</v>
       </c>
-      <c r="T1" s="6">
+      <c r="T1" s="5">
         <v>45007</v>
+      </c>
+      <c r="U1" s="6">
+        <v>45012</v>
       </c>
     </row>
     <row r="2">
@@ -855,6 +858,9 @@
       <c r="T2">
         <v>-10</v>
       </c>
+      <c r="U2">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -917,6 +923,9 @@
       <c r="T3">
         <v>-10</v>
       </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -979,6 +988,9 @@
       <c r="T4">
         <v>15</v>
       </c>
+      <c r="U4">
+        <v>-15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -1040,6 +1052,9 @@
       </c>
       <c r="T5">
         <v>15</v>
+      </c>
+      <c r="U5">
+        <v>-15</v>
       </c>
     </row>
     <row r="6">
@@ -1103,6 +1118,9 @@
       <c r="T6">
         <v>15</v>
       </c>
+      <c r="U6">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -1165,6 +1183,9 @@
       <c r="T7">
         <v>15</v>
       </c>
+      <c r="U7">
+        <v>-15</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -1227,6 +1248,9 @@
       <c r="T8">
         <v>15</v>
       </c>
+      <c r="U8">
+        <v>-15</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -1289,6 +1313,9 @@
       <c r="T9">
         <v>15</v>
       </c>
+      <c r="U9">
+        <v>10</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -1351,6 +1378,9 @@
       <c r="T10">
         <v>15</v>
       </c>
+      <c r="U10">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -1412,6 +1442,9 @@
       </c>
       <c r="T11">
         <v>-10</v>
+      </c>
+      <c r="U11">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1475,6 +1508,9 @@
       <c r="T12">
         <v>15</v>
       </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
@@ -1537,6 +1573,9 @@
       <c r="T13">
         <v>15</v>
       </c>
+      <c r="U13">
+        <v>-15</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
@@ -1599,6 +1638,9 @@
       <c r="T14">
         <v>15</v>
       </c>
+      <c r="U14">
+        <v>-15</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
@@ -1661,6 +1703,9 @@
       <c r="T15">
         <v>-10</v>
       </c>
+      <c r="U15">
+        <v>-15</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
@@ -1722,6 +1767,9 @@
       </c>
       <c r="T16">
         <v>15</v>
+      </c>
+      <c r="U16">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1785,6 +1833,9 @@
       <c r="T17">
         <v>-10</v>
       </c>
+      <c r="U17">
+        <v>-15</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
@@ -1846,6 +1897,9 @@
       </c>
       <c r="T18">
         <v>15</v>
+      </c>
+      <c r="U18">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1857,7 +1911,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{000A0042-00CD-434F-BB64-003B00F900D6}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00E700F4-0036-470A-ADB7-0059000E00BE}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1874,7 +1928,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00D40050-00F4-4F7B-B051-006E0076006F}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00C6005B-0092-49B4-B267-003500AF00BA}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1891,7 +1945,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{005C0061-0020-4E86-A470-0011006900AC}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0097009E-0040-43B8-A00A-002B0078005F}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -1967,7 +2021,9 @@
       <c r="D2" s="7">
         <v>3</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="7">
+        <v>10</v>
+      </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -1976,7 +2032,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7">
         <f t="shared" ref="L2:L18" si="0">SUM(C2:K2)</f>
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -2189,7 +2245,9 @@
       <c r="D10" s="7">
         <v>10</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7">
+        <v>10</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -2198,7 +2256,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -2433,7 +2491,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{009800A2-0019-4359-B59C-00B100CF0065}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00070057-008D-477E-B752-00D7000C00A3}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -2450,7 +2508,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00150064-0098-4DE0-B80A-00BD00570033}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00170007-0079-4131-9B08-0074008100FC}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -2467,7 +2525,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0070009D-00CC-418D-9EBB-000800E600F6}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{009D0092-0039-453E-9086-006600E000E9}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -199,9 +199,15 @@
     <xf fontId="0" fillId="0" borderId="2" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -793,9 +799,16 @@
       <c r="T1" s="5">
         <v>45007</v>
       </c>
-      <c r="U1" s="6">
+      <c r="U1" s="5">
         <v>45012</v>
       </c>
+      <c r="V1" s="5">
+        <v>45014</v>
+      </c>
+      <c r="W1" s="6">
+        <v>45016</v>
+      </c>
+      <c r="X1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -834,33 +847,40 @@
       <c r="L2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M2">
-        <v>15</v>
-      </c>
-      <c r="N2">
-        <v>-15</v>
-      </c>
-      <c r="O2">
-        <v>15</v>
-      </c>
-      <c r="P2">
-        <v>10</v>
-      </c>
-      <c r="Q2">
-        <v>10</v>
-      </c>
-      <c r="R2">
-        <v>15</v>
-      </c>
-      <c r="S2">
-        <v>-15</v>
-      </c>
-      <c r="T2">
+      <c r="M2" s="1">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1">
+        <v>-15</v>
+      </c>
+      <c r="O2" s="1">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>10</v>
+      </c>
+      <c r="R2" s="1">
+        <v>15</v>
+      </c>
+      <c r="S2" s="1">
+        <v>-15</v>
+      </c>
+      <c r="T2" s="1">
         <v>-10</v>
       </c>
-      <c r="U2">
-        <v>10</v>
-      </c>
+      <c r="U2" s="1">
+        <v>10</v>
+      </c>
+      <c r="V2" s="1">
+        <v>-10</v>
+      </c>
+      <c r="W2" s="1">
+        <v>10</v>
+      </c>
+      <c r="X2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -899,33 +919,40 @@
       <c r="L3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M3">
-        <v>15</v>
-      </c>
-      <c r="N3">
-        <v>10</v>
-      </c>
-      <c r="O3">
+      <c r="M3" s="1">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1">
+        <v>10</v>
+      </c>
+      <c r="O3" s="1">
         <v>-10</v>
       </c>
-      <c r="P3">
-        <v>-15</v>
-      </c>
-      <c r="Q3">
-        <v>10</v>
-      </c>
-      <c r="R3">
+      <c r="P3" s="1">
+        <v>-15</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>10</v>
+      </c>
+      <c r="R3" s="1">
         <v>-10</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>0</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="1">
         <v>-10</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="1">
         <v>0</v>
       </c>
+      <c r="V3" s="1">
+        <v>-10</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -964,33 +991,40 @@
       <c r="L4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>0</v>
       </c>
-      <c r="N4">
-        <v>10</v>
-      </c>
-      <c r="O4">
-        <v>15</v>
-      </c>
-      <c r="P4">
-        <v>10</v>
-      </c>
-      <c r="Q4">
-        <v>10</v>
-      </c>
-      <c r="R4">
-        <v>15</v>
-      </c>
-      <c r="S4">
-        <v>10</v>
-      </c>
-      <c r="T4">
-        <v>15</v>
-      </c>
-      <c r="U4">
-        <v>-15</v>
-      </c>
+      <c r="N4" s="1">
+        <v>10</v>
+      </c>
+      <c r="O4" s="1">
+        <v>15</v>
+      </c>
+      <c r="P4" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>10</v>
+      </c>
+      <c r="R4" s="1">
+        <v>15</v>
+      </c>
+      <c r="S4" s="1">
+        <v>10</v>
+      </c>
+      <c r="T4" s="1">
+        <v>15</v>
+      </c>
+      <c r="U4" s="1">
+        <v>-15</v>
+      </c>
+      <c r="V4" s="1">
+        <v>15</v>
+      </c>
+      <c r="W4" s="1">
+        <v>10</v>
+      </c>
+      <c r="X4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -1029,33 +1063,40 @@
       <c r="L5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M5">
-        <v>15</v>
-      </c>
-      <c r="N5">
-        <v>10</v>
-      </c>
-      <c r="O5">
-        <v>15</v>
-      </c>
-      <c r="P5">
-        <v>10</v>
-      </c>
-      <c r="Q5">
+      <c r="M5" s="1">
+        <v>15</v>
+      </c>
+      <c r="N5" s="1">
+        <v>10</v>
+      </c>
+      <c r="O5" s="1">
+        <v>15</v>
+      </c>
+      <c r="P5" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="1">
         <v>0</v>
       </c>
-      <c r="R5">
-        <v>15</v>
-      </c>
-      <c r="S5">
-        <v>10</v>
-      </c>
-      <c r="T5">
-        <v>15</v>
-      </c>
-      <c r="U5">
-        <v>-15</v>
-      </c>
+      <c r="R5" s="1">
+        <v>15</v>
+      </c>
+      <c r="S5" s="1">
+        <v>10</v>
+      </c>
+      <c r="T5" s="1">
+        <v>15</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>15</v>
+      </c>
+      <c r="W5" s="1">
+        <v>10</v>
+      </c>
+      <c r="X5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -1094,33 +1135,40 @@
       <c r="L6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M6">
-        <v>15</v>
-      </c>
-      <c r="N6">
-        <v>10</v>
-      </c>
-      <c r="O6">
-        <v>15</v>
-      </c>
-      <c r="P6">
-        <v>10</v>
-      </c>
-      <c r="Q6">
-        <v>-15</v>
-      </c>
-      <c r="R6">
-        <v>15</v>
-      </c>
-      <c r="S6">
-        <v>10</v>
-      </c>
-      <c r="T6">
-        <v>15</v>
-      </c>
-      <c r="U6">
-        <v>10</v>
-      </c>
+      <c r="M6" s="1">
+        <v>15</v>
+      </c>
+      <c r="N6" s="1">
+        <v>10</v>
+      </c>
+      <c r="O6" s="1">
+        <v>15</v>
+      </c>
+      <c r="P6" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>-15</v>
+      </c>
+      <c r="R6" s="1">
+        <v>15</v>
+      </c>
+      <c r="S6" s="1">
+        <v>10</v>
+      </c>
+      <c r="T6" s="1">
+        <v>15</v>
+      </c>
+      <c r="U6" s="1">
+        <v>10</v>
+      </c>
+      <c r="V6" s="1">
+        <v>15</v>
+      </c>
+      <c r="W6" s="1">
+        <v>-15</v>
+      </c>
+      <c r="X6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -1159,33 +1207,40 @@
       <c r="L7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M7">
-        <v>15</v>
-      </c>
-      <c r="N7">
-        <v>10</v>
-      </c>
-      <c r="O7">
-        <v>15</v>
-      </c>
-      <c r="P7">
-        <v>10</v>
-      </c>
-      <c r="Q7">
-        <v>10</v>
-      </c>
-      <c r="R7">
-        <v>15</v>
-      </c>
-      <c r="S7">
-        <v>10</v>
-      </c>
-      <c r="T7">
-        <v>15</v>
-      </c>
-      <c r="U7">
-        <v>-15</v>
-      </c>
+      <c r="M7" s="1">
+        <v>15</v>
+      </c>
+      <c r="N7" s="1">
+        <v>10</v>
+      </c>
+      <c r="O7" s="1">
+        <v>15</v>
+      </c>
+      <c r="P7" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>10</v>
+      </c>
+      <c r="R7" s="1">
+        <v>15</v>
+      </c>
+      <c r="S7" s="1">
+        <v>10</v>
+      </c>
+      <c r="T7" s="1">
+        <v>15</v>
+      </c>
+      <c r="U7" s="1">
+        <v>-15</v>
+      </c>
+      <c r="V7" s="1">
+        <v>15</v>
+      </c>
+      <c r="W7" s="1">
+        <v>-15</v>
+      </c>
+      <c r="X7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -1224,33 +1279,40 @@
       <c r="L8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M8">
-        <v>15</v>
-      </c>
-      <c r="N8">
-        <v>-15</v>
-      </c>
-      <c r="O8">
-        <v>15</v>
-      </c>
-      <c r="P8">
-        <v>10</v>
-      </c>
-      <c r="Q8">
-        <v>10</v>
-      </c>
-      <c r="R8">
-        <v>15</v>
-      </c>
-      <c r="S8">
-        <v>-15</v>
-      </c>
-      <c r="T8">
-        <v>15</v>
-      </c>
-      <c r="U8">
-        <v>-15</v>
-      </c>
+      <c r="M8" s="1">
+        <v>15</v>
+      </c>
+      <c r="N8" s="1">
+        <v>-15</v>
+      </c>
+      <c r="O8" s="1">
+        <v>15</v>
+      </c>
+      <c r="P8" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>10</v>
+      </c>
+      <c r="R8" s="1">
+        <v>15</v>
+      </c>
+      <c r="S8" s="1">
+        <v>-15</v>
+      </c>
+      <c r="T8" s="1">
+        <v>15</v>
+      </c>
+      <c r="U8" s="1">
+        <v>-15</v>
+      </c>
+      <c r="V8" s="1">
+        <v>-10</v>
+      </c>
+      <c r="W8" s="1">
+        <v>10</v>
+      </c>
+      <c r="X8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -1289,33 +1351,40 @@
       <c r="L9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M9">
-        <v>15</v>
-      </c>
-      <c r="N9">
-        <v>10</v>
-      </c>
-      <c r="O9">
-        <v>15</v>
-      </c>
-      <c r="P9">
-        <v>10</v>
-      </c>
-      <c r="Q9">
-        <v>10</v>
-      </c>
-      <c r="R9">
+      <c r="M9" s="1">
+        <v>15</v>
+      </c>
+      <c r="N9" s="1">
+        <v>10</v>
+      </c>
+      <c r="O9" s="1">
+        <v>15</v>
+      </c>
+      <c r="P9" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>10</v>
+      </c>
+      <c r="R9" s="1">
         <v>0</v>
       </c>
-      <c r="S9">
-        <v>10</v>
-      </c>
-      <c r="T9">
-        <v>15</v>
-      </c>
-      <c r="U9">
-        <v>10</v>
-      </c>
+      <c r="S9" s="1">
+        <v>10</v>
+      </c>
+      <c r="T9" s="1">
+        <v>15</v>
+      </c>
+      <c r="U9" s="1">
+        <v>10</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -1354,33 +1423,40 @@
       <c r="L10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M10">
-        <v>15</v>
-      </c>
-      <c r="N10">
-        <v>10</v>
-      </c>
-      <c r="O10">
+      <c r="M10" s="1">
+        <v>15</v>
+      </c>
+      <c r="N10" s="1">
+        <v>10</v>
+      </c>
+      <c r="O10" s="1">
         <v>-10</v>
       </c>
-      <c r="P10">
-        <v>-15</v>
-      </c>
-      <c r="Q10">
-        <v>10</v>
-      </c>
-      <c r="R10">
-        <v>15</v>
-      </c>
-      <c r="S10">
-        <v>10</v>
-      </c>
-      <c r="T10">
-        <v>15</v>
-      </c>
-      <c r="U10">
-        <v>10</v>
-      </c>
+      <c r="P10" s="1">
+        <v>-15</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>10</v>
+      </c>
+      <c r="R10" s="1">
+        <v>15</v>
+      </c>
+      <c r="S10" s="1">
+        <v>10</v>
+      </c>
+      <c r="T10" s="1">
+        <v>15</v>
+      </c>
+      <c r="U10" s="1">
+        <v>10</v>
+      </c>
+      <c r="V10" s="1">
+        <v>15</v>
+      </c>
+      <c r="W10" s="1">
+        <v>10</v>
+      </c>
+      <c r="X10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -1419,33 +1495,40 @@
       <c r="L11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <v>0</v>
       </c>
-      <c r="N11">
-        <v>10</v>
-      </c>
-      <c r="O11">
+      <c r="N11" s="1">
+        <v>10</v>
+      </c>
+      <c r="O11" s="1">
         <v>-10</v>
       </c>
-      <c r="P11">
-        <v>10</v>
-      </c>
-      <c r="Q11">
-        <v>-15</v>
-      </c>
-      <c r="R11">
+      <c r="P11" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>-15</v>
+      </c>
+      <c r="R11" s="1">
         <v>-10</v>
       </c>
-      <c r="S11">
-        <v>-15</v>
-      </c>
-      <c r="T11">
+      <c r="S11" s="1">
+        <v>-15</v>
+      </c>
+      <c r="T11" s="1">
         <v>-10</v>
       </c>
-      <c r="U11">
-        <v>10</v>
-      </c>
+      <c r="U11" s="1">
+        <v>10</v>
+      </c>
+      <c r="V11" s="1">
+        <v>15</v>
+      </c>
+      <c r="W11" s="1">
+        <v>-15</v>
+      </c>
+      <c r="X11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -1484,33 +1567,40 @@
       <c r="L12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="1">
         <v>-10</v>
       </c>
-      <c r="N12">
-        <v>10</v>
-      </c>
-      <c r="O12">
-        <v>15</v>
-      </c>
-      <c r="P12">
-        <v>10</v>
-      </c>
-      <c r="Q12">
-        <v>10</v>
-      </c>
-      <c r="R12">
-        <v>15</v>
-      </c>
-      <c r="S12">
-        <v>10</v>
-      </c>
-      <c r="T12">
-        <v>15</v>
-      </c>
-      <c r="U12">
+      <c r="N12" s="1">
+        <v>10</v>
+      </c>
+      <c r="O12" s="1">
+        <v>15</v>
+      </c>
+      <c r="P12" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>10</v>
+      </c>
+      <c r="R12" s="1">
+        <v>15</v>
+      </c>
+      <c r="S12" s="1">
+        <v>10</v>
+      </c>
+      <c r="T12" s="1">
+        <v>15</v>
+      </c>
+      <c r="U12" s="1">
         <v>0</v>
       </c>
+      <c r="V12" s="1">
+        <v>15</v>
+      </c>
+      <c r="W12" s="1">
+        <v>10</v>
+      </c>
+      <c r="X12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="2">
@@ -1549,33 +1639,40 @@
       <c r="L13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M13">
-        <v>15</v>
-      </c>
-      <c r="N13">
-        <v>10</v>
-      </c>
-      <c r="O13">
-        <v>15</v>
-      </c>
-      <c r="P13">
-        <v>10</v>
-      </c>
-      <c r="Q13">
-        <v>10</v>
-      </c>
-      <c r="R13">
-        <v>15</v>
-      </c>
-      <c r="S13">
-        <v>10</v>
-      </c>
-      <c r="T13">
-        <v>15</v>
-      </c>
-      <c r="U13">
-        <v>-15</v>
-      </c>
+      <c r="M13" s="1">
+        <v>15</v>
+      </c>
+      <c r="N13" s="1">
+        <v>10</v>
+      </c>
+      <c r="O13" s="1">
+        <v>15</v>
+      </c>
+      <c r="P13" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>10</v>
+      </c>
+      <c r="R13" s="1">
+        <v>15</v>
+      </c>
+      <c r="S13" s="1">
+        <v>10</v>
+      </c>
+      <c r="T13" s="1">
+        <v>15</v>
+      </c>
+      <c r="U13" s="1">
+        <v>-15</v>
+      </c>
+      <c r="V13" s="1">
+        <v>15</v>
+      </c>
+      <c r="W13" s="1">
+        <v>10</v>
+      </c>
+      <c r="X13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="2">
@@ -1614,33 +1711,40 @@
       <c r="L14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="1">
         <v>-10</v>
       </c>
-      <c r="N14">
-        <v>10</v>
-      </c>
-      <c r="O14">
-        <v>15</v>
-      </c>
-      <c r="P14">
-        <v>-15</v>
-      </c>
-      <c r="Q14">
-        <v>10</v>
-      </c>
-      <c r="R14">
+      <c r="N14" s="1">
+        <v>10</v>
+      </c>
+      <c r="O14" s="1">
+        <v>15</v>
+      </c>
+      <c r="P14" s="1">
+        <v>-15</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>10</v>
+      </c>
+      <c r="R14" s="1">
         <v>-10</v>
       </c>
-      <c r="S14">
-        <v>10</v>
-      </c>
-      <c r="T14">
-        <v>15</v>
-      </c>
-      <c r="U14">
-        <v>-15</v>
-      </c>
+      <c r="S14" s="1">
+        <v>10</v>
+      </c>
+      <c r="T14" s="1">
+        <v>15</v>
+      </c>
+      <c r="U14" s="1">
+        <v>-15</v>
+      </c>
+      <c r="V14" s="1">
+        <v>15</v>
+      </c>
+      <c r="W14" s="1">
+        <v>-15</v>
+      </c>
+      <c r="X14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="2">
@@ -1679,33 +1783,40 @@
       <c r="L15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="1">
         <v>-10</v>
       </c>
-      <c r="N15">
-        <v>10</v>
-      </c>
-      <c r="O15">
+      <c r="N15" s="1">
+        <v>10</v>
+      </c>
+      <c r="O15" s="1">
         <v>-10</v>
       </c>
-      <c r="P15">
-        <v>-15</v>
-      </c>
-      <c r="Q15">
-        <v>-15</v>
-      </c>
-      <c r="R15">
+      <c r="P15" s="1">
+        <v>-15</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>-15</v>
+      </c>
+      <c r="R15" s="1">
         <v>-10</v>
       </c>
-      <c r="S15">
-        <v>10</v>
-      </c>
-      <c r="T15">
+      <c r="S15" s="1">
+        <v>10</v>
+      </c>
+      <c r="T15" s="1">
         <v>-10</v>
       </c>
-      <c r="U15">
-        <v>-15</v>
-      </c>
+      <c r="U15" s="1">
+        <v>-15</v>
+      </c>
+      <c r="V15" s="1">
+        <v>-10</v>
+      </c>
+      <c r="W15" s="1">
+        <v>-15</v>
+      </c>
+      <c r="X15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="2">
@@ -1744,33 +1855,40 @@
       <c r="L16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="1">
         <v>-10</v>
       </c>
-      <c r="N16">
-        <v>-15</v>
-      </c>
-      <c r="O16">
+      <c r="N16" s="1">
+        <v>-15</v>
+      </c>
+      <c r="O16" s="1">
         <v>-10</v>
       </c>
-      <c r="P16">
-        <v>-15</v>
-      </c>
-      <c r="Q16">
-        <v>-15</v>
-      </c>
-      <c r="R16">
+      <c r="P16" s="1">
+        <v>-15</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>-15</v>
+      </c>
+      <c r="R16" s="1">
         <v>-10</v>
       </c>
-      <c r="S16">
-        <v>-15</v>
-      </c>
-      <c r="T16">
-        <v>15</v>
-      </c>
-      <c r="U16">
-        <v>10</v>
-      </c>
+      <c r="S16" s="1">
+        <v>-15</v>
+      </c>
+      <c r="T16" s="1">
+        <v>15</v>
+      </c>
+      <c r="U16" s="1">
+        <v>10</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="2">
@@ -1809,33 +1927,40 @@
       <c r="L17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M17">
-        <v>15</v>
-      </c>
-      <c r="N17">
-        <v>-15</v>
-      </c>
-      <c r="O17">
-        <v>15</v>
-      </c>
-      <c r="P17">
-        <v>-15</v>
-      </c>
-      <c r="Q17">
-        <v>15</v>
-      </c>
-      <c r="R17">
-        <v>15</v>
-      </c>
-      <c r="S17">
+      <c r="M17" s="1">
+        <v>15</v>
+      </c>
+      <c r="N17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="O17" s="1">
+        <v>15</v>
+      </c>
+      <c r="P17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>15</v>
+      </c>
+      <c r="R17" s="1">
+        <v>15</v>
+      </c>
+      <c r="S17" s="1">
         <v>-25</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="1">
         <v>-10</v>
       </c>
-      <c r="U17">
-        <v>-15</v>
-      </c>
+      <c r="U17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="V17" s="1">
+        <v>15</v>
+      </c>
+      <c r="W17" s="1">
+        <v>10</v>
+      </c>
+      <c r="X17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="2">
@@ -1874,33 +1999,138 @@
       <c r="L18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M18">
-        <v>15</v>
-      </c>
-      <c r="N18">
-        <v>-15</v>
-      </c>
-      <c r="O18">
-        <v>15</v>
-      </c>
-      <c r="P18">
-        <v>10</v>
-      </c>
-      <c r="Q18">
-        <v>10</v>
-      </c>
-      <c r="R18">
-        <v>15</v>
-      </c>
-      <c r="S18">
-        <v>10</v>
-      </c>
-      <c r="T18">
-        <v>15</v>
-      </c>
-      <c r="U18">
-        <v>10</v>
-      </c>
+      <c r="M18" s="1">
+        <v>15</v>
+      </c>
+      <c r="N18" s="1">
+        <v>-15</v>
+      </c>
+      <c r="O18" s="1">
+        <v>15</v>
+      </c>
+      <c r="P18" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>10</v>
+      </c>
+      <c r="R18" s="1">
+        <v>15</v>
+      </c>
+      <c r="S18" s="1">
+        <v>10</v>
+      </c>
+      <c r="T18" s="1">
+        <v>15</v>
+      </c>
+      <c r="U18" s="1">
+        <v>10</v>
+      </c>
+      <c r="V18" s="1">
+        <v>15</v>
+      </c>
+      <c r="W18" s="1">
+        <v>10</v>
+      </c>
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -1911,7 +2141,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00E700F4-0036-470A-ADB7-0059000E00BE}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{0060005D-0067-45A9-89B0-008900C7005D}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1928,7 +2158,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00C6005B-0092-49B4-B267-003500AF00BA}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00A50086-00A7-4788-95B1-007E006B0054}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1945,7 +2175,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0097009E-0040-43B8-A00A-002B0078005F}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{003F0075-0021-467F-919B-00F100F600C0}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -2113,7 +2343,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -2121,7 +2351,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -2436,7 +2666,9 @@
       <c r="D17" s="7">
         <v>3</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="7">
+        <v>10</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -2445,7 +2677,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -2491,7 +2723,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00070057-008D-477E-B752-00D7000C00A3}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00EC0069-00EB-42B3-BAE2-009200030042}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -2508,7 +2740,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00170007-0079-4131-9B08-0074008100FC}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{005D00A8-006E-412A-A2AF-00D10042001F}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -2525,7 +2757,7 @@
           <xm:sqref>C2:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{009D0092-0039-453E-9086-006600E000E9}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00BA00F9-00E6-4E51-925D-006700F500C2}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/information-systems-testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36569FFB-5F49-4840-A555-2A77F9C5CBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C320E2-6AF7-3D4F-965C-D9B725D6996B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1566,9 +1566,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X20" sqref="X20"/>
+    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3275,8 +3275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="176" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="176" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3724,14 +3724,16 @@
       <c r="D16" s="19">
         <v>6</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="17">
+        <v>8</v>
+      </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="19">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K16" s="17"/>
     </row>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/information-systems-testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C320E2-6AF7-3D4F-965C-D9B725D6996B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF122402-C5FF-6841-8B47-28F914EC6094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
+    <sheet name="Успеваемость" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3276,7 +3276,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/information-systems-testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF122402-C5FF-6841-8B47-28F914EC6094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C3406A-FE47-784D-B3B2-0713470CFBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -273,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -335,6 +335,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1564,11 +1568,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S18" sqref="S18"/>
+      <selection pane="topRight" activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1580,7 +1584,7 @@
     <col min="26" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1656,12 +1660,15 @@
       <c r="Y1" s="28">
         <v>45026</v>
       </c>
-      <c r="Z1" s="29" t="s">
+      <c r="Z1" s="31">
+        <v>45028</v>
+      </c>
+      <c r="AA1" s="30"/>
+      <c r="AC1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="30"/>
-    </row>
-    <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1737,13 +1744,16 @@
       <c r="Y2" s="27">
         <v>10</v>
       </c>
-      <c r="Z2" s="29">
-        <f>SUM(M2:Y2)</f>
-        <v>35</v>
+      <c r="Z2" s="32">
+        <v>15</v>
       </c>
       <c r="AA2" s="30"/>
-    </row>
-    <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC2" s="29">
+        <f>SUM(M2:Z2)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1819,13 +1829,16 @@
       <c r="Y3" s="27">
         <v>-15</v>
       </c>
-      <c r="Z3" s="29">
-        <f t="shared" ref="Z3:Z18" si="0">SUM(M3:Y3)</f>
-        <v>-35</v>
+      <c r="Z3" s="32">
+        <v>15</v>
       </c>
       <c r="AA3" s="30"/>
-    </row>
-    <row r="4" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC3" s="29">
+        <f>SUM(M3:Z3)</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1901,13 +1914,16 @@
       <c r="Y4" s="27">
         <v>10</v>
       </c>
-      <c r="Z4" s="29">
-        <f t="shared" si="0"/>
-        <v>120</v>
+      <c r="Z4" s="32">
+        <v>15</v>
       </c>
       <c r="AA4" s="30"/>
-    </row>
-    <row r="5" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC4" s="29">
+        <f>SUM(M4:Z4)</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1983,13 +1999,16 @@
       <c r="Y5" s="27">
         <v>-15</v>
       </c>
-      <c r="Z5" s="29">
-        <f t="shared" si="0"/>
-        <v>90</v>
+      <c r="Z5" s="32">
+        <v>15</v>
       </c>
       <c r="AA5" s="30"/>
-    </row>
-    <row r="6" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC5" s="29">
+        <f>SUM(M5:Z5)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2065,13 +2084,16 @@
       <c r="Y6" s="27">
         <v>10</v>
       </c>
-      <c r="Z6" s="29">
-        <f t="shared" si="0"/>
-        <v>110</v>
+      <c r="Z6" s="32">
+        <v>15</v>
       </c>
       <c r="AA6" s="30"/>
-    </row>
-    <row r="7" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC6" s="29">
+        <f>SUM(M6:Z6)</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2147,13 +2169,16 @@
       <c r="Y7" s="27">
         <v>-15</v>
       </c>
-      <c r="Z7" s="29">
-        <f t="shared" si="0"/>
-        <v>60</v>
+      <c r="Z7" s="32">
+        <v>-10</v>
       </c>
       <c r="AA7" s="30"/>
-    </row>
-    <row r="8" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC7" s="29">
+        <f>SUM(M7:Z7)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2229,13 +2254,16 @@
       <c r="Y8" s="27">
         <v>10</v>
       </c>
-      <c r="Z8" s="29">
-        <f t="shared" si="0"/>
-        <v>35</v>
+      <c r="Z8" s="32">
+        <v>15</v>
       </c>
       <c r="AA8" s="30"/>
-    </row>
-    <row r="9" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC8" s="29">
+        <f>SUM(M8:Z8)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2311,13 +2339,16 @@
       <c r="Y9" s="27">
         <v>10</v>
       </c>
-      <c r="Z9" s="29">
-        <f t="shared" si="0"/>
-        <v>105</v>
+      <c r="Z9" s="32">
+        <v>15</v>
       </c>
       <c r="AA9" s="30"/>
-    </row>
-    <row r="10" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC9" s="29">
+        <f>SUM(M9:Z9)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -2393,13 +2424,16 @@
       <c r="Y10" s="27">
         <v>-15</v>
       </c>
-      <c r="Z10" s="29">
-        <f t="shared" si="0"/>
-        <v>85</v>
+      <c r="Z10" s="32">
+        <v>15</v>
       </c>
       <c r="AA10" s="30"/>
-    </row>
-    <row r="11" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC10" s="29">
+        <f>SUM(M10:Z10)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2475,13 +2509,16 @@
       <c r="Y11" s="27">
         <v>10</v>
       </c>
-      <c r="Z11" s="29">
-        <f t="shared" si="0"/>
-        <v>-5</v>
+      <c r="Z11" s="32">
+        <v>15</v>
       </c>
       <c r="AA11" s="30"/>
-    </row>
-    <row r="12" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC11" s="29">
+        <f>SUM(M11:Z11)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -2557,13 +2594,16 @@
       <c r="Y12" s="27">
         <v>10</v>
       </c>
-      <c r="Z12" s="29">
-        <f t="shared" si="0"/>
-        <v>100</v>
+      <c r="Z12" s="32">
+        <v>15</v>
       </c>
       <c r="AA12" s="30"/>
-    </row>
-    <row r="13" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC12" s="29">
+        <f>SUM(M12:Z12)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -2639,13 +2679,16 @@
       <c r="Y13" s="27">
         <v>0</v>
       </c>
-      <c r="Z13" s="29">
-        <f t="shared" si="0"/>
-        <v>125</v>
+      <c r="Z13" s="32">
+        <v>15</v>
       </c>
       <c r="AA13" s="30"/>
-    </row>
-    <row r="14" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC13" s="29">
+        <f>SUM(M13:Z13)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -2721,13 +2764,16 @@
       <c r="Y14" s="27">
         <v>10</v>
       </c>
-      <c r="Z14" s="29">
-        <f t="shared" si="0"/>
-        <v>35</v>
+      <c r="Z14" s="32">
+        <v>-10</v>
       </c>
       <c r="AA14" s="30"/>
-    </row>
-    <row r="15" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC14" s="29">
+        <f>SUM(M14:Z14)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -2803,13 +2849,16 @@
       <c r="Y15" s="27">
         <v>10</v>
       </c>
-      <c r="Z15" s="29">
-        <f t="shared" si="0"/>
-        <v>-80</v>
+      <c r="Z15" s="32">
+        <v>15</v>
       </c>
       <c r="AA15" s="30"/>
-    </row>
-    <row r="16" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC15" s="29">
+        <f>SUM(M15:Z15)</f>
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -2885,13 +2934,16 @@
       <c r="Y16" s="27">
         <v>10</v>
       </c>
-      <c r="Z16" s="29">
-        <f t="shared" si="0"/>
-        <v>-55</v>
+      <c r="Z16" s="32">
+        <v>15</v>
       </c>
       <c r="AA16" s="30"/>
-    </row>
-    <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC16" s="29">
+        <f>SUM(M16:Z16)</f>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -2967,13 +3019,16 @@
       <c r="Y17" s="27">
         <v>-15</v>
       </c>
-      <c r="Z17" s="29">
-        <f t="shared" si="0"/>
-        <v>5</v>
+      <c r="Z17" s="32">
+        <v>-10</v>
       </c>
       <c r="AA17" s="30"/>
-    </row>
-    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC17" s="29">
+        <f>SUM(M17:Z17)</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -3049,13 +3104,16 @@
       <c r="Y18" s="27">
         <v>10</v>
       </c>
-      <c r="Z18" s="29">
-        <f t="shared" si="0"/>
-        <v>150</v>
+      <c r="Z18" s="32">
+        <v>15</v>
       </c>
       <c r="AA18" s="30"/>
-    </row>
-    <row r="19" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC18" s="29">
+        <f>SUM(M18:Z18)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
@@ -3083,7 +3141,7 @@
       <c r="Y19" s="26"/>
       <c r="Z19" s="26"/>
     </row>
-    <row r="20" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
@@ -3111,7 +3169,7 @@
       <c r="Y20" s="26"/>
       <c r="Z20" s="26"/>
     </row>
-    <row r="21" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
@@ -3139,7 +3197,7 @@
       <c r="Y21" s="26"/>
       <c r="Z21" s="26"/>
     </row>
-    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
@@ -3167,7 +3225,7 @@
       <c r="Y22" s="26"/>
       <c r="Z22" s="26"/>
     </row>
-    <row r="23" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
@@ -3195,7 +3253,7 @@
       <c r="Y23" s="26"/>
       <c r="Z23" s="26"/>
     </row>
-    <row r="24" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
@@ -3223,7 +3281,7 @@
       <c r="Y24" s="26"/>
       <c r="Z24" s="26"/>
     </row>
-    <row r="25" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
@@ -3275,7 +3333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="176" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="176" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/information-systems-testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C3406A-FE47-784D-B3B2-0713470CFBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CF7A5B-77F3-5745-AB6B-33A645E4E3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -269,11 +269,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -334,13 +347,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1570,9 +1578,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
       <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X9" sqref="X9"/>
+      <selection pane="topRight" activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1663,7 +1671,10 @@
       <c r="Z1" s="31">
         <v>45028</v>
       </c>
-      <c r="AA1" s="30"/>
+      <c r="AA1" s="28">
+        <v>45033</v>
+      </c>
+      <c r="AB1" s="26"/>
       <c r="AC1" s="29" t="s">
         <v>30</v>
       </c>
@@ -1744,12 +1755,13 @@
       <c r="Y2" s="27">
         <v>10</v>
       </c>
-      <c r="Z2" s="32">
-        <v>15</v>
-      </c>
-      <c r="AA2" s="30"/>
+      <c r="Z2" s="27">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="26"/>
       <c r="AC2" s="29">
-        <f>SUM(M2:Z2)</f>
+        <f t="shared" ref="AC2:AC18" si="0">SUM(M2:Z2)</f>
         <v>50</v>
       </c>
     </row>
@@ -1829,12 +1841,13 @@
       <c r="Y3" s="27">
         <v>-15</v>
       </c>
-      <c r="Z3" s="32">
-        <v>15</v>
-      </c>
-      <c r="AA3" s="30"/>
+      <c r="Z3" s="27">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="26"/>
       <c r="AC3" s="29">
-        <f>SUM(M3:Z3)</f>
+        <f t="shared" si="0"/>
         <v>-20</v>
       </c>
     </row>
@@ -1914,12 +1927,13 @@
       <c r="Y4" s="27">
         <v>10</v>
       </c>
-      <c r="Z4" s="32">
-        <v>15</v>
-      </c>
-      <c r="AA4" s="30"/>
+      <c r="Z4" s="27">
+        <v>15</v>
+      </c>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="26"/>
       <c r="AC4" s="29">
-        <f>SUM(M4:Z4)</f>
+        <f t="shared" si="0"/>
         <v>135</v>
       </c>
     </row>
@@ -1997,15 +2011,16 @@
         <v>-10</v>
       </c>
       <c r="Y5" s="27">
-        <v>-15</v>
-      </c>
-      <c r="Z5" s="32">
-        <v>15</v>
-      </c>
-      <c r="AA5" s="30"/>
+        <v>10</v>
+      </c>
+      <c r="Z5" s="27">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="26"/>
       <c r="AC5" s="29">
-        <f>SUM(M5:Z5)</f>
-        <v>105</v>
+        <f t="shared" si="0"/>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2084,12 +2099,13 @@
       <c r="Y6" s="27">
         <v>10</v>
       </c>
-      <c r="Z6" s="32">
-        <v>15</v>
-      </c>
-      <c r="AA6" s="30"/>
+      <c r="Z6" s="27">
+        <v>15</v>
+      </c>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="26"/>
       <c r="AC6" s="29">
-        <f>SUM(M6:Z6)</f>
+        <f t="shared" si="0"/>
         <v>125</v>
       </c>
     </row>
@@ -2169,12 +2185,13 @@
       <c r="Y7" s="27">
         <v>-15</v>
       </c>
-      <c r="Z7" s="32">
+      <c r="Z7" s="27">
         <v>-10</v>
       </c>
-      <c r="AA7" s="30"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="26"/>
       <c r="AC7" s="29">
-        <f>SUM(M7:Z7)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -2254,12 +2271,13 @@
       <c r="Y8" s="27">
         <v>10</v>
       </c>
-      <c r="Z8" s="32">
-        <v>15</v>
-      </c>
-      <c r="AA8" s="30"/>
+      <c r="Z8" s="27">
+        <v>15</v>
+      </c>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="26"/>
       <c r="AC8" s="29">
-        <f>SUM(M8:Z8)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -2339,12 +2357,13 @@
       <c r="Y9" s="27">
         <v>10</v>
       </c>
-      <c r="Z9" s="32">
-        <v>15</v>
-      </c>
-      <c r="AA9" s="30"/>
+      <c r="Z9" s="27">
+        <v>15</v>
+      </c>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="26"/>
       <c r="AC9" s="29">
-        <f>SUM(M9:Z9)</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
@@ -2424,12 +2443,13 @@
       <c r="Y10" s="27">
         <v>-15</v>
       </c>
-      <c r="Z10" s="32">
-        <v>15</v>
-      </c>
-      <c r="AA10" s="30"/>
+      <c r="Z10" s="27">
+        <v>15</v>
+      </c>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="26"/>
       <c r="AC10" s="29">
-        <f>SUM(M10:Z10)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -2509,12 +2529,13 @@
       <c r="Y11" s="27">
         <v>10</v>
       </c>
-      <c r="Z11" s="32">
-        <v>15</v>
-      </c>
-      <c r="AA11" s="30"/>
+      <c r="Z11" s="27">
+        <v>15</v>
+      </c>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="26"/>
       <c r="AC11" s="29">
-        <f>SUM(M11:Z11)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -2594,12 +2615,13 @@
       <c r="Y12" s="27">
         <v>10</v>
       </c>
-      <c r="Z12" s="32">
-        <v>15</v>
-      </c>
-      <c r="AA12" s="30"/>
+      <c r="Z12" s="27">
+        <v>15</v>
+      </c>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="26"/>
       <c r="AC12" s="29">
-        <f>SUM(M12:Z12)</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
     </row>
@@ -2679,12 +2701,13 @@
       <c r="Y13" s="27">
         <v>0</v>
       </c>
-      <c r="Z13" s="32">
-        <v>15</v>
-      </c>
-      <c r="AA13" s="30"/>
+      <c r="Z13" s="27">
+        <v>15</v>
+      </c>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="26"/>
       <c r="AC13" s="29">
-        <f>SUM(M13:Z13)</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
     </row>
@@ -2764,12 +2787,13 @@
       <c r="Y14" s="27">
         <v>10</v>
       </c>
-      <c r="Z14" s="32">
+      <c r="Z14" s="27">
         <v>-10</v>
       </c>
-      <c r="AA14" s="30"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="26"/>
       <c r="AC14" s="29">
-        <f>SUM(M14:Z14)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -2849,12 +2873,13 @@
       <c r="Y15" s="27">
         <v>10</v>
       </c>
-      <c r="Z15" s="32">
-        <v>15</v>
-      </c>
-      <c r="AA15" s="30"/>
+      <c r="Z15" s="27">
+        <v>15</v>
+      </c>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="26"/>
       <c r="AC15" s="29">
-        <f>SUM(M15:Z15)</f>
+        <f t="shared" si="0"/>
         <v>-65</v>
       </c>
     </row>
@@ -2934,12 +2959,13 @@
       <c r="Y16" s="27">
         <v>10</v>
       </c>
-      <c r="Z16" s="32">
-        <v>15</v>
-      </c>
-      <c r="AA16" s="30"/>
+      <c r="Z16" s="27">
+        <v>15</v>
+      </c>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="26"/>
       <c r="AC16" s="29">
-        <f>SUM(M16:Z16)</f>
+        <f t="shared" si="0"/>
         <v>-40</v>
       </c>
     </row>
@@ -3019,12 +3045,13 @@
       <c r="Y17" s="27">
         <v>-15</v>
       </c>
-      <c r="Z17" s="32">
+      <c r="Z17" s="27">
         <v>-10</v>
       </c>
-      <c r="AA17" s="30"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="26"/>
       <c r="AC17" s="29">
-        <f>SUM(M17:Z17)</f>
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
     </row>
@@ -3104,12 +3131,13 @@
       <c r="Y18" s="27">
         <v>10</v>
       </c>
-      <c r="Z18" s="32">
-        <v>15</v>
-      </c>
-      <c r="AA18" s="30"/>
+      <c r="Z18" s="27">
+        <v>15</v>
+      </c>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="26"/>
       <c r="AC18" s="29">
-        <f>SUM(M18:Z18)</f>
+        <f t="shared" si="0"/>
         <v>165</v>
       </c>
     </row>
@@ -3138,8 +3166,11 @@
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="25"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
     </row>
     <row r="20" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
@@ -3168,6 +3199,9 @@
       <c r="X20" s="25"/>
       <c r="Y20" s="26"/>
       <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
     </row>
     <row r="21" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
@@ -3196,6 +3230,9 @@
       <c r="X21" s="25"/>
       <c r="Y21" s="26"/>
       <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="26"/>
     </row>
     <row r="22" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
@@ -3224,6 +3261,9 @@
       <c r="X22" s="25"/>
       <c r="Y22" s="26"/>
       <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
     </row>
     <row r="23" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
@@ -3252,6 +3292,9 @@
       <c r="X23" s="25"/>
       <c r="Y23" s="26"/>
       <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
     </row>
     <row r="24" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
@@ -3280,6 +3323,9 @@
       <c r="X24" s="25"/>
       <c r="Y24" s="26"/>
       <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
     </row>
     <row r="25" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
@@ -3308,6 +3354,9 @@
       <c r="X25" s="25"/>
       <c r="Y25" s="26"/>
       <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:L18">
@@ -3333,8 +3382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="176" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="176" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3402,10 +3451,12 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="I2" s="17">
+        <v>16</v>
+      </c>
       <c r="J2" s="19">
         <f>SUM(C2:I2)</f>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="K2" s="17"/>
     </row>
@@ -3432,10 +3483,12 @@
         <v>16</v>
       </c>
       <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="I3" s="17">
+        <v>18</v>
+      </c>
       <c r="J3" s="19">
         <f t="shared" ref="J3:J18" si="0">SUM(C3:I3)</f>
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="K3" s="17"/>
     </row>
@@ -3446,7 +3499,9 @@
       <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="17">
+        <v>10</v>
+      </c>
       <c r="D4" s="19">
         <v>16</v>
       </c>
@@ -3456,12 +3511,16 @@
       <c r="F4" s="19">
         <v>8</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="17">
+        <v>16</v>
+      </c>
       <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="I4" s="17">
+        <v>17</v>
+      </c>
       <c r="J4" s="19">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="K4" s="17"/>
     </row>
@@ -3487,11 +3546,15 @@
       <c r="G5" s="19">
         <v>16</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="H5" s="17">
+        <v>8</v>
+      </c>
+      <c r="I5" s="17">
+        <v>13</v>
+      </c>
       <c r="J5" s="19">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="K5" s="17"/>
     </row>
@@ -3510,14 +3573,18 @@
         <v>16</v>
       </c>
       <c r="F6" s="19">
-        <v>6</v>
-      </c>
-      <c r="G6" s="17"/>
+        <v>16</v>
+      </c>
+      <c r="G6" s="17">
+        <v>16</v>
+      </c>
       <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="I6" s="17">
+        <v>13</v>
+      </c>
       <c r="J6" s="19">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="K6" s="17"/>
     </row>
@@ -3539,13 +3606,15 @@
         <v>18</v>
       </c>
       <c r="G7" s="19">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="I7" s="17">
+        <v>20</v>
+      </c>
       <c r="J7" s="19">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="K7" s="17"/>
     </row>
@@ -3566,10 +3635,12 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="I8" s="17">
+        <v>18</v>
+      </c>
       <c r="J8" s="19">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="K8" s="17"/>
     </row>
@@ -3596,10 +3667,12 @@
         <v>8</v>
       </c>
       <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="I9" s="17">
+        <v>17</v>
+      </c>
       <c r="J9" s="19">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="K9" s="17"/>
     </row>
@@ -3622,10 +3695,12 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="17">
+        <v>20</v>
+      </c>
       <c r="J10" s="19">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="K10" s="17"/>
     </row>
@@ -3644,10 +3719,12 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="I11" s="17">
+        <v>15</v>
+      </c>
       <c r="J11" s="19">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="K11" s="17"/>
     </row>
@@ -3676,10 +3753,12 @@
       <c r="H12" s="17">
         <v>16</v>
       </c>
-      <c r="I12" s="17"/>
+      <c r="I12" s="17">
+        <v>20</v>
+      </c>
       <c r="J12" s="19">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="K12" s="17"/>
     </row>
@@ -3691,7 +3770,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="19">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D13" s="19">
         <v>16</v>
@@ -3702,12 +3781,16 @@
       <c r="F13" s="19">
         <v>8</v>
       </c>
-      <c r="G13" s="17"/>
+      <c r="G13" s="17">
+        <v>16</v>
+      </c>
       <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="I13" s="17">
+        <v>17</v>
+      </c>
       <c r="J13" s="19">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="K13" s="17"/>
     </row>
@@ -3732,10 +3815,12 @@
         <v>8</v>
       </c>
       <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="I14" s="17">
+        <v>15</v>
+      </c>
       <c r="J14" s="19">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="K14" s="17"/>
     </row>
@@ -3783,15 +3868,19 @@
         <v>6</v>
       </c>
       <c r="E16" s="17">
+        <v>16</v>
+      </c>
+      <c r="F16" s="17">
         <v>8</v>
       </c>
-      <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="I16" s="17">
+        <v>17</v>
+      </c>
       <c r="J16" s="19">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="K16" s="17"/>
     </row>
@@ -3812,10 +3901,12 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="I17" s="17">
+        <v>12</v>
+      </c>
       <c r="J17" s="19">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="K17" s="17"/>
     </row>
@@ -3836,10 +3927,12 @@
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="I18" s="17">
+        <v>16</v>
+      </c>
       <c r="J18" s="19">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="K18" s="17"/>
     </row>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/information-systems-testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CF7A5B-77F3-5745-AB6B-33A645E4E3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B57F09-2A98-9542-AA66-D821CC7A7E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1580,7 +1580,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
       <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V21" sqref="V21"/>
+      <selection pane="topRight" activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1758,11 +1758,13 @@
       <c r="Z2" s="27">
         <v>15</v>
       </c>
-      <c r="AA2" s="29"/>
+      <c r="AA2" s="29">
+        <v>10</v>
+      </c>
       <c r="AB2" s="26"/>
       <c r="AC2" s="29">
-        <f t="shared" ref="AC2:AC18" si="0">SUM(M2:Z2)</f>
-        <v>50</v>
+        <f>SUM(M2:AB2)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1844,11 +1846,13 @@
       <c r="Z3" s="27">
         <v>15</v>
       </c>
-      <c r="AA3" s="29"/>
+      <c r="AA3" s="29">
+        <v>10</v>
+      </c>
       <c r="AB3" s="26"/>
       <c r="AC3" s="29">
-        <f t="shared" si="0"/>
-        <v>-20</v>
+        <f t="shared" ref="AC3:AC18" si="0">SUM(M3:AB3)</f>
+        <v>-10</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1930,11 +1934,13 @@
       <c r="Z4" s="27">
         <v>15</v>
       </c>
-      <c r="AA4" s="29"/>
+      <c r="AA4" s="29">
+        <v>10</v>
+      </c>
       <c r="AB4" s="26"/>
       <c r="AC4" s="29">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2016,11 +2022,13 @@
       <c r="Z5" s="27">
         <v>15</v>
       </c>
-      <c r="AA5" s="29"/>
+      <c r="AA5" s="29">
+        <v>10</v>
+      </c>
       <c r="AB5" s="26"/>
       <c r="AC5" s="29">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2102,11 +2110,13 @@
       <c r="Z6" s="27">
         <v>15</v>
       </c>
-      <c r="AA6" s="29"/>
+      <c r="AA6" s="29">
+        <v>10</v>
+      </c>
       <c r="AB6" s="26"/>
       <c r="AC6" s="29">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2188,11 +2198,13 @@
       <c r="Z7" s="27">
         <v>-10</v>
       </c>
-      <c r="AA7" s="29"/>
+      <c r="AA7" s="29">
+        <v>10</v>
+      </c>
       <c r="AB7" s="26"/>
       <c r="AC7" s="29">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2274,11 +2286,13 @@
       <c r="Z8" s="27">
         <v>15</v>
       </c>
-      <c r="AA8" s="29"/>
+      <c r="AA8" s="29">
+        <v>10</v>
+      </c>
       <c r="AB8" s="26"/>
       <c r="AC8" s="29">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2360,11 +2374,13 @@
       <c r="Z9" s="27">
         <v>15</v>
       </c>
-      <c r="AA9" s="29"/>
+      <c r="AA9" s="29">
+        <v>10</v>
+      </c>
       <c r="AB9" s="26"/>
       <c r="AC9" s="29">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2446,11 +2462,13 @@
       <c r="Z10" s="27">
         <v>15</v>
       </c>
-      <c r="AA10" s="29"/>
+      <c r="AA10" s="29">
+        <v>10</v>
+      </c>
       <c r="AB10" s="26"/>
       <c r="AC10" s="29">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2532,11 +2550,13 @@
       <c r="Z11" s="27">
         <v>15</v>
       </c>
-      <c r="AA11" s="29"/>
+      <c r="AA11" s="29">
+        <v>10</v>
+      </c>
       <c r="AB11" s="26"/>
       <c r="AC11" s="29">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2618,11 +2638,13 @@
       <c r="Z12" s="27">
         <v>15</v>
       </c>
-      <c r="AA12" s="29"/>
+      <c r="AA12" s="29">
+        <v>10</v>
+      </c>
       <c r="AB12" s="26"/>
       <c r="AC12" s="29">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2704,11 +2726,13 @@
       <c r="Z13" s="27">
         <v>15</v>
       </c>
-      <c r="AA13" s="29"/>
+      <c r="AA13" s="29">
+        <v>10</v>
+      </c>
       <c r="AB13" s="26"/>
       <c r="AC13" s="29">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2790,11 +2814,13 @@
       <c r="Z14" s="27">
         <v>-10</v>
       </c>
-      <c r="AA14" s="29"/>
+      <c r="AA14" s="29">
+        <v>10</v>
+      </c>
       <c r="AB14" s="26"/>
       <c r="AC14" s="29">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2876,11 +2902,13 @@
       <c r="Z15" s="27">
         <v>15</v>
       </c>
-      <c r="AA15" s="29"/>
+      <c r="AA15" s="29">
+        <v>-15</v>
+      </c>
       <c r="AB15" s="26"/>
       <c r="AC15" s="29">
         <f t="shared" si="0"/>
-        <v>-65</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2962,11 +2990,13 @@
       <c r="Z16" s="27">
         <v>15</v>
       </c>
-      <c r="AA16" s="29"/>
+      <c r="AA16" s="29">
+        <v>10</v>
+      </c>
       <c r="AB16" s="26"/>
       <c r="AC16" s="29">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3048,11 +3078,13 @@
       <c r="Z17" s="27">
         <v>-10</v>
       </c>
-      <c r="AA17" s="29"/>
+      <c r="AA17" s="29">
+        <v>10</v>
+      </c>
       <c r="AB17" s="26"/>
       <c r="AC17" s="29">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3134,11 +3166,13 @@
       <c r="Z18" s="27">
         <v>15</v>
       </c>
-      <c r="AA18" s="29"/>
+      <c r="AA18" s="29">
+        <v>10</v>
+      </c>
       <c r="AB18" s="26"/>
       <c r="AC18" s="29">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3383,7 +3417,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3448,7 +3482,9 @@
       <c r="E2" s="19">
         <v>16</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="17">
+        <v>8</v>
+      </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17">
@@ -3456,7 +3492,7 @@
       </c>
       <c r="J2" s="19">
         <f>SUM(C2:I2)</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K2" s="17"/>
     </row>
@@ -3632,7 +3668,9 @@
       <c r="E8" s="19">
         <v>16</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="17">
+        <v>8</v>
+      </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17">
@@ -3640,7 +3678,7 @@
       </c>
       <c r="J8" s="19">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="K8" s="17"/>
     </row>
@@ -3664,7 +3702,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="19">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17">
@@ -3672,7 +3710,7 @@
       </c>
       <c r="J9" s="19">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K9" s="17"/>
     </row>
@@ -3692,7 +3730,9 @@
       <c r="E10" s="19">
         <v>16</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17">
+        <v>8</v>
+      </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17">
@@ -3700,7 +3740,7 @@
       </c>
       <c r="J10" s="19">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="K10" s="17"/>
     </row>
@@ -3812,7 +3852,7 @@
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="19">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17">
@@ -3820,7 +3860,7 @@
       </c>
       <c r="J14" s="19">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K14" s="17"/>
     </row>
@@ -3873,14 +3913,16 @@
       <c r="F16" s="17">
         <v>8</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="17">
+        <v>16</v>
+      </c>
       <c r="H16" s="17"/>
       <c r="I16" s="17">
         <v>17</v>
       </c>
       <c r="J16" s="19">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="K16" s="17"/>
     </row>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/information-systems-testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B57F09-2A98-9542-AA66-D821CC7A7E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42D5DBE-8B55-6B4E-96E4-CEE805C36CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -1578,9 +1578,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB20" sqref="AB20"/>
+      <selection pane="topRight" activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1674,7 +1674,9 @@
       <c r="AA1" s="28">
         <v>45033</v>
       </c>
-      <c r="AB1" s="26"/>
+      <c r="AB1" s="28">
+        <v>45035</v>
+      </c>
       <c r="AC1" s="29" t="s">
         <v>30</v>
       </c>
@@ -1761,10 +1763,12 @@
       <c r="AA2" s="29">
         <v>10</v>
       </c>
-      <c r="AB2" s="26"/>
+      <c r="AB2" s="29">
+        <v>15</v>
+      </c>
       <c r="AC2" s="29">
         <f>SUM(M2:AB2)</f>
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1849,10 +1853,12 @@
       <c r="AA3" s="29">
         <v>10</v>
       </c>
-      <c r="AB3" s="26"/>
+      <c r="AB3" s="29">
+        <v>-10</v>
+      </c>
       <c r="AC3" s="29">
         <f t="shared" ref="AC3:AC18" si="0">SUM(M3:AB3)</f>
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1937,7 +1943,9 @@
       <c r="AA4" s="29">
         <v>10</v>
       </c>
-      <c r="AB4" s="26"/>
+      <c r="AB4" s="29">
+        <v>0</v>
+      </c>
       <c r="AC4" s="29">
         <f t="shared" si="0"/>
         <v>145</v>
@@ -2025,10 +2033,12 @@
       <c r="AA5" s="29">
         <v>10</v>
       </c>
-      <c r="AB5" s="26"/>
+      <c r="AB5" s="29">
+        <v>-10</v>
+      </c>
       <c r="AC5" s="29">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2113,10 +2123,12 @@
       <c r="AA6" s="29">
         <v>10</v>
       </c>
-      <c r="AB6" s="26"/>
+      <c r="AB6" s="29">
+        <v>-10</v>
+      </c>
       <c r="AC6" s="29">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2193,18 +2205,20 @@
         <v>-10</v>
       </c>
       <c r="Y7" s="27">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="27">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="29">
         <v>10</v>
       </c>
-      <c r="AB7" s="26"/>
+      <c r="AB7" s="29">
+        <v>15</v>
+      </c>
       <c r="AC7" s="29">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2289,10 +2303,12 @@
       <c r="AA8" s="29">
         <v>10</v>
       </c>
-      <c r="AB8" s="26"/>
+      <c r="AB8" s="29">
+        <v>15</v>
+      </c>
       <c r="AC8" s="29">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2377,10 +2393,12 @@
       <c r="AA9" s="29">
         <v>10</v>
       </c>
-      <c r="AB9" s="26"/>
+      <c r="AB9" s="29">
+        <v>-10</v>
+      </c>
       <c r="AC9" s="29">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2465,10 +2483,12 @@
       <c r="AA10" s="29">
         <v>10</v>
       </c>
-      <c r="AB10" s="26"/>
+      <c r="AB10" s="29">
+        <v>15</v>
+      </c>
       <c r="AC10" s="29">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2553,10 +2573,12 @@
       <c r="AA11" s="29">
         <v>10</v>
       </c>
-      <c r="AB11" s="26"/>
+      <c r="AB11" s="29">
+        <v>15</v>
+      </c>
       <c r="AC11" s="29">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2641,10 +2663,12 @@
       <c r="AA12" s="29">
         <v>10</v>
       </c>
-      <c r="AB12" s="26"/>
+      <c r="AB12" s="29">
+        <v>15</v>
+      </c>
       <c r="AC12" s="29">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2729,10 +2753,12 @@
       <c r="AA13" s="29">
         <v>10</v>
       </c>
-      <c r="AB13" s="26"/>
+      <c r="AB13" s="29">
+        <v>15</v>
+      </c>
       <c r="AC13" s="29">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2817,10 +2843,12 @@
       <c r="AA14" s="29">
         <v>10</v>
       </c>
-      <c r="AB14" s="26"/>
+      <c r="AB14" s="29">
+        <v>15</v>
+      </c>
       <c r="AC14" s="29">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2905,10 +2933,12 @@
       <c r="AA15" s="29">
         <v>-15</v>
       </c>
-      <c r="AB15" s="26"/>
+      <c r="AB15" s="29">
+        <v>15</v>
+      </c>
       <c r="AC15" s="29">
         <f t="shared" si="0"/>
-        <v>-80</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2993,10 +3023,12 @@
       <c r="AA16" s="29">
         <v>10</v>
       </c>
-      <c r="AB16" s="26"/>
+      <c r="AB16" s="29">
+        <v>-10</v>
+      </c>
       <c r="AC16" s="29">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3081,10 +3113,12 @@
       <c r="AA17" s="29">
         <v>10</v>
       </c>
-      <c r="AB17" s="26"/>
+      <c r="AB17" s="29">
+        <v>-10</v>
+      </c>
       <c r="AC17" s="29">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3169,10 +3203,12 @@
       <c r="AA18" s="29">
         <v>10</v>
       </c>
-      <c r="AB18" s="26"/>
+      <c r="AB18" s="29">
+        <v>15</v>
+      </c>
       <c r="AC18" s="29">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3416,8 +3452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" zoomScale="176" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Успеваемость_С-ИП-21-2.xlsx
+++ b/Успеваемость_С-ИП-21-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/information-systems-testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42D5DBE-8B55-6B4E-96E4-CEE805C36CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6D0490-B51E-E748-BDA8-8B9FC51C0869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -1578,9 +1578,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y18" sqref="Y18"/>
+    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2034,11 +2034,11 @@
         <v>10</v>
       </c>
       <c r="AB5" s="29">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="29">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2394,11 +2394,11 @@
         <v>10</v>
       </c>
       <c r="AB9" s="29">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="29">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3024,11 +3024,11 @@
         <v>10</v>
       </c>
       <c r="AB16" s="29">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="29">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3452,8 +3452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="176" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="176" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3521,14 +3521,16 @@
       <c r="F2" s="17">
         <v>8</v>
       </c>
-      <c r="G2" s="17"/>
+      <c r="G2" s="17">
+        <v>16</v>
+      </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17">
         <v>16</v>
       </c>
       <c r="J2" s="19">
         <f>SUM(C2:I2)</f>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="K2" s="17"/>
     </row>
@@ -3707,14 +3709,16 @@
       <c r="F8" s="17">
         <v>8</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="17">
+        <v>16</v>
+      </c>
       <c r="H8" s="17"/>
       <c r="I8" s="17">
         <v>18</v>
       </c>
       <c r="J8" s="19">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="K8" s="17"/>
     </row>
@@ -3890,13 +3894,15 @@
       <c r="G14" s="19">
         <v>16</v>
       </c>
-      <c r="H14" s="17"/>
+      <c r="H14" s="17">
+        <v>16</v>
+      </c>
       <c r="I14" s="17">
         <v>15</v>
       </c>
       <c r="J14" s="19">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="K14" s="17"/>
     </row>
@@ -3922,11 +3928,13 @@
       <c r="G15" s="19">
         <v>8</v>
       </c>
-      <c r="H15" s="17"/>
+      <c r="H15" s="17">
+        <v>16</v>
+      </c>
       <c r="I15" s="17"/>
       <c r="J15" s="19">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="K15" s="17"/>
     </row>
@@ -4004,13 +4012,15 @@
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+      <c r="H18" s="17">
+        <v>16</v>
+      </c>
       <c r="I18" s="17">
         <v>16</v>
       </c>
       <c r="J18" s="19">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="K18" s="17"/>
     </row>
